--- a/REGULAR/MIRANDA, MARIA LOIDA.xlsx
+++ b/REGULAR/MIRANDA, MARIA LOIDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68462915-E15B-4EE3-B835-4441248B34E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84D72E4-BF95-4688-A089-E6EEB4651142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="410">
   <si>
     <t>PERIOD</t>
   </si>
@@ -4072,9 +4072,9 @@
   <dimension ref="A2:K622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A600" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A612" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B613" sqref="B613"/>
+      <selection pane="bottomLeft" activeCell="D618" sqref="D618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4241,7 +4241,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>118.40500000000003</v>
+        <v>119.65500000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4251,7 +4251,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>102.77600000000002</v>
+        <v>103.02600000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17798,19 +17798,27 @@
       <c r="A613" s="39">
         <v>44986</v>
       </c>
-      <c r="B613" s="20"/>
-      <c r="C613" s="13"/>
+      <c r="B613" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C613" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D613" s="38"/>
       <c r="E613" s="9"/>
       <c r="F613" s="20"/>
-      <c r="G613" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H613" s="38"/>
+      <c r="G613" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H613" s="38">
+        <v>1</v>
+      </c>
       <c r="I613" s="9"/>
       <c r="J613" s="11"/>
-      <c r="K613" s="20"/>
+      <c r="K613" s="47">
+        <v>44987</v>
+      </c>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="39">

--- a/REGULAR/MIRANDA, MARIA LOIDA.xlsx
+++ b/REGULAR/MIRANDA, MARIA LOIDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84D72E4-BF95-4688-A089-E6EEB4651142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="411">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1265,12 +1264,15 @@
   </si>
   <si>
     <t>1/13,16,17</t>
+  </si>
+  <si>
+    <t>3/13, 4/11,12/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1723,7 +1725,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1798,7 +1799,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1866,7 +1866,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2108,7 +2107,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2156,7 +2154,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2197,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2261,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2321,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2387,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,7 +2450,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2548,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2607,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2674,7 +2672,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2717,7 +2715,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2790,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +2976,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3044,7 +3042,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3102,7 +3100,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3168,7 +3166,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3224,7 +3222,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3299,7 +3297,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3340,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3408,7 +3406,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3464,7 +3462,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3562,7 +3560,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3625,7 +3623,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3691,25 +3689,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K622" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K623" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3721,13 +3719,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3736,14 +3734,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4047,7 +4045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4057,7 +4055,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4065,34 +4063,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K622"/>
+  <dimension ref="A2:K623"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A612" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A612" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D618" sqref="D618"/>
+      <selection pane="bottomLeft" activeCell="B616" sqref="B616"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4115,7 +4113,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4137,7 +4135,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4159,7 +4157,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4167,7 +4165,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4180,7 +4178,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -4197,7 +4195,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4232,7 +4230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4251,12 +4249,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>103.02600000000002</v>
+        <v>100.02600000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>44</v>
       </c>
@@ -4278,7 +4276,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>35796</v>
       </c>
@@ -4304,7 +4302,7 @@
         <v>35818</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4326,7 +4324,7 @@
         <v>35823</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="20" t="s">
         <v>47</v>
@@ -4346,7 +4344,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="47"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>35827</v>
       </c>
@@ -4372,7 +4370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -4394,7 +4392,7 @@
         <v>35829</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="20" t="s">
         <v>51</v>
@@ -4416,7 +4414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -4438,7 +4436,7 @@
         <v>35852</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="20" t="s">
         <v>52</v>
@@ -4458,7 +4456,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="47"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>35855</v>
       </c>
@@ -4484,7 +4482,7 @@
         <v>35864</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -4506,7 +4504,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="20" t="s">
         <v>54</v>
@@ -4526,7 +4524,7 @@
         <v>35874</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="20" t="s">
         <v>45</v>
@@ -4548,7 +4546,7 @@
         <v>35879</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="20" t="s">
         <v>55</v>
@@ -4568,7 +4566,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>35886</v>
       </c>
@@ -4594,7 +4592,7 @@
         <v>35893</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="20" t="s">
         <v>56</v>
@@ -4614,7 +4612,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="47"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>35916</v>
       </c>
@@ -4638,7 +4636,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="15" t="s">
         <v>46</v>
@@ -4660,7 +4658,7 @@
         <v>35937</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="15" t="s">
         <v>57</v>
@@ -4680,7 +4678,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="48"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>35947</v>
       </c>
@@ -4706,7 +4704,7 @@
         <v>35948</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="15" t="s">
         <v>54</v>
@@ -4726,7 +4724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="15" t="s">
         <v>57</v>
@@ -4746,7 +4744,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="48"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>35977</v>
       </c>
@@ -4772,7 +4770,7 @@
         <v>36007</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="20" t="s">
         <v>57</v>
@@ -4792,7 +4790,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="47"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>36008</v>
       </c>
@@ -4818,7 +4816,7 @@
         <v>36034</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="20" t="s">
         <v>59</v>
@@ -4838,7 +4836,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="47"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>36039</v>
       </c>
@@ -4864,7 +4862,7 @@
         <v>36068</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="20" t="s">
         <v>60</v>
@@ -4884,7 +4882,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="47"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>36069</v>
       </c>
@@ -4910,7 +4908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="20" t="s">
         <v>63</v>
@@ -4930,7 +4928,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>36100</v>
       </c>
@@ -4956,7 +4954,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>36130</v>
       </c>
@@ -4982,7 +4980,7 @@
         <v>36111</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="20" t="s">
         <v>65</v>
@@ -5002,7 +5000,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="47"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s">
         <v>66</v>
       </c>
@@ -5020,7 +5018,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="47"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>36161</v>
       </c>
@@ -5046,7 +5044,7 @@
         <v>36189</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="20" t="s">
         <v>67</v>
@@ -5066,7 +5064,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="47"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <v>36192</v>
       </c>
@@ -5092,7 +5090,7 @@
         <v>36206</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="20" t="s">
         <v>68</v>
@@ -5112,7 +5110,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>36220</v>
       </c>
@@ -5136,7 +5134,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>36251</v>
       </c>
@@ -5162,7 +5160,7 @@
         <v>36262</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="20" t="s">
         <v>46</v>
@@ -5184,7 +5182,7 @@
         <v>36263</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="20" t="s">
         <v>70</v>
@@ -5204,7 +5202,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="47"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>36281</v>
       </c>
@@ -5230,7 +5228,7 @@
         <v>36297</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="20" t="s">
         <v>71</v>
@@ -5250,7 +5248,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="47"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <v>36312</v>
       </c>
@@ -5274,7 +5272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="20" t="s">
         <v>54</v>
@@ -5294,7 +5292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="20" t="s">
         <v>46</v>
@@ -5316,7 +5314,7 @@
         <v>36340</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="20" t="s">
         <v>74</v>
@@ -5336,7 +5334,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="47"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>36342</v>
       </c>
@@ -5360,7 +5358,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>36373</v>
       </c>
@@ -5386,7 +5384,7 @@
         <v>36364</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="20" t="s">
         <v>76</v>
@@ -5406,7 +5404,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="47"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>36404</v>
       </c>
@@ -5430,7 +5428,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <v>36434</v>
       </c>
@@ -5456,7 +5454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="20" t="s">
         <v>54</v>
@@ -5476,7 +5474,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="20" t="s">
         <v>81</v>
@@ -5498,7 +5496,7 @@
         <v>36457</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>36465</v>
       </c>
@@ -5524,7 +5522,7 @@
         <v>36481</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="20" t="s">
         <v>82</v>
@@ -5544,7 +5542,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="47"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <v>36495</v>
       </c>
@@ -5570,7 +5568,7 @@
         <v>36502</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="20" t="s">
         <v>83</v>
@@ -5590,7 +5588,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="47"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="46" t="s">
         <v>84</v>
       </c>
@@ -5608,7 +5606,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="47"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>36526</v>
       </c>
@@ -5632,7 +5630,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <v>36557</v>
       </c>
@@ -5658,7 +5656,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="20" t="s">
         <v>87</v>
@@ -5678,7 +5676,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <v>36586</v>
       </c>
@@ -5702,7 +5700,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="20" t="s">
         <v>46</v>
@@ -5724,7 +5722,7 @@
         <v>36608</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="20" t="s">
         <v>89</v>
@@ -5744,7 +5742,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>36617</v>
       </c>
@@ -5768,7 +5766,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <v>36647</v>
       </c>
@@ -5792,7 +5790,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <v>36678</v>
       </c>
@@ -5816,7 +5814,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="20" t="s">
         <v>46</v>
@@ -5838,7 +5836,7 @@
         <v>36690</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="20" t="s">
         <v>54</v>
@@ -5858,7 +5856,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="20" t="s">
         <v>94</v>
@@ -5878,7 +5876,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="47"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <v>36708</v>
       </c>
@@ -5902,7 +5900,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>36739</v>
       </c>
@@ -5926,7 +5924,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <v>36770</v>
       </c>
@@ -5950,7 +5948,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="20" t="s">
         <v>45</v>
@@ -5972,7 +5970,7 @@
         <v>36784</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="20" t="s">
         <v>97</v>
@@ -5992,7 +5990,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <v>36800</v>
       </c>
@@ -6018,7 +6016,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="20" t="s">
         <v>46</v>
@@ -6040,7 +6038,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
         <v>45</v>
@@ -6062,7 +6060,7 @@
         <v>36829</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="20" t="s">
         <v>100</v>
@@ -6082,7 +6080,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <v>36831</v>
       </c>
@@ -6106,7 +6104,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>36861</v>
       </c>
@@ -6132,7 +6130,7 @@
         <v>36868</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="20" t="s">
         <v>102</v>
@@ -6152,7 +6150,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="47"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="46" t="s">
         <v>103</v>
       </c>
@@ -6170,7 +6168,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="47"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <v>36892</v>
       </c>
@@ -6194,7 +6192,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <v>36923</v>
       </c>
@@ -6218,7 +6216,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <v>36951</v>
       </c>
@@ -6242,7 +6240,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <v>36982</v>
       </c>
@@ -6266,7 +6264,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <v>37012</v>
       </c>
@@ -6292,7 +6290,7 @@
         <v>37032</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="20" t="s">
         <v>46</v>
@@ -6314,7 +6312,7 @@
         <v>37036</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
       <c r="B101" s="20" t="s">
         <v>48</v>
@@ -6336,7 +6334,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <v>37043</v>
       </c>
@@ -6360,7 +6358,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <v>37073</v>
       </c>
@@ -6386,7 +6384,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="20" t="s">
         <v>110</v>
@@ -6406,7 +6404,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <v>37104</v>
       </c>
@@ -6430,7 +6428,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <v>37135</v>
       </c>
@@ -6456,7 +6454,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="20" t="s">
         <v>113</v>
@@ -6478,7 +6476,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <v>37165</v>
       </c>
@@ -6502,7 +6500,7 @@
         <v>37169</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="20" t="s">
         <v>46</v>
@@ -6524,7 +6522,7 @@
         <v>37176</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
       <c r="B110" s="20" t="s">
         <v>54</v>
@@ -6544,7 +6542,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="20" t="s">
         <v>114</v>
@@ -6564,7 +6562,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="47"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
         <v>37196</v>
       </c>
@@ -6590,7 +6588,7 @@
         <v>37208</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
       <c r="B113" s="20" t="s">
         <v>54</v>
@@ -6610,7 +6608,7 @@
         <v>37224</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
       <c r="B114" s="20" t="s">
         <v>115</v>
@@ -6630,7 +6628,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="47"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <v>37226</v>
       </c>
@@ -6654,7 +6652,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
       <c r="B116" s="20" t="s">
         <v>51</v>
@@ -6676,7 +6674,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="46" t="s">
         <v>103</v>
       </c>
@@ -6694,7 +6692,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
         <v>37257</v>
       </c>
@@ -6718,7 +6716,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
         <v>37288</v>
       </c>
@@ -6742,7 +6740,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39"/>
       <c r="B120" s="20" t="s">
         <v>51</v>
@@ -6764,7 +6762,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
         <v>37316</v>
       </c>
@@ -6788,7 +6786,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
         <v>37347</v>
       </c>
@@ -6812,7 +6810,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
         <v>37377</v>
       </c>
@@ -6838,7 +6836,7 @@
         <v>37371</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
         <v>37408</v>
       </c>
@@ -6864,7 +6862,7 @@
         <v>37396</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="20" t="s">
         <v>46</v>
@@ -6886,7 +6884,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39"/>
       <c r="B126" s="20" t="s">
         <v>124</v>
@@ -6906,7 +6904,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="47"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
         <v>37438</v>
       </c>
@@ -6932,7 +6930,7 @@
         <v>37463</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39">
         <v>37469</v>
       </c>
@@ -6958,7 +6956,7 @@
         <v>37473</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="39"/>
       <c r="B129" s="20" t="s">
         <v>127</v>
@@ -6978,7 +6976,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>37500</v>
       </c>
@@ -6998,7 +6996,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>37530</v>
       </c>
@@ -7024,7 +7022,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39"/>
       <c r="B132" s="20" t="s">
         <v>46</v>
@@ -7046,7 +7044,7 @@
         <v>37536</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39"/>
       <c r="B133" s="20" t="s">
         <v>48</v>
@@ -7068,7 +7066,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="39"/>
       <c r="B134" s="20" t="s">
         <v>46</v>
@@ -7090,7 +7088,7 @@
         <v>37546</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="39"/>
       <c r="B135" s="20" t="s">
         <v>45</v>
@@ -7112,7 +7110,7 @@
         <v>37559</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="39"/>
       <c r="B136" s="20" t="s">
         <v>126</v>
@@ -7132,7 +7130,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="39">
         <v>37561</v>
       </c>
@@ -7158,7 +7156,7 @@
         <v>37589</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="39"/>
       <c r="B138" s="20" t="s">
         <v>130</v>
@@ -7178,7 +7176,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="47"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="39">
         <v>37591</v>
       </c>
@@ -7202,7 +7200,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="20" t="s">
         <v>48</v>
@@ -7224,7 +7222,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="39"/>
       <c r="B141" s="20" t="s">
         <v>133</v>
@@ -7244,7 +7242,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="46" t="s">
         <v>134</v>
       </c>
@@ -7262,7 +7260,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="39">
         <v>37622</v>
       </c>
@@ -7288,7 +7286,7 @@
         <v>37623</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="39"/>
       <c r="B144" s="20" t="s">
         <v>135</v>
@@ -7308,7 +7306,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="47"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="39">
         <v>37653</v>
       </c>
@@ -7334,7 +7332,7 @@
         <v>37662</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="39">
         <v>37681</v>
       </c>
@@ -7360,7 +7358,7 @@
         <v>37697</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="39"/>
       <c r="B147" s="20" t="s">
         <v>46</v>
@@ -7382,7 +7380,7 @@
         <v>37701</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="39"/>
       <c r="B148" s="20" t="s">
         <v>136</v>
@@ -7402,7 +7400,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="47"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="39">
         <v>37712</v>
       </c>
@@ -7426,7 +7424,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="39">
         <v>37742</v>
       </c>
@@ -7452,7 +7450,7 @@
         <v>37758</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="39"/>
       <c r="B151" s="20" t="s">
         <v>138</v>
@@ -7472,7 +7470,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="47"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="39">
         <v>37773</v>
       </c>
@@ -7498,7 +7496,7 @@
         <v>37781</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="39"/>
       <c r="B153" s="20" t="s">
         <v>139</v>
@@ -7518,7 +7516,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="47"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="39">
         <v>37803</v>
       </c>
@@ -7544,7 +7542,7 @@
         <v>37827</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="39"/>
       <c r="B155" s="20" t="s">
         <v>140</v>
@@ -7564,7 +7562,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="47"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="39">
         <v>37834</v>
       </c>
@@ -7588,7 +7586,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="39">
         <v>37865</v>
       </c>
@@ -7614,7 +7612,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="39"/>
       <c r="B158" s="20" t="s">
         <v>111</v>
@@ -7634,7 +7632,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="39"/>
       <c r="B159" s="20" t="s">
         <v>54</v>
@@ -7654,7 +7652,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="39"/>
       <c r="B160" s="20" t="s">
         <v>119</v>
@@ -7674,7 +7672,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="39">
         <v>37895</v>
       </c>
@@ -7700,7 +7698,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="39"/>
       <c r="B162" s="20" t="s">
         <v>97</v>
@@ -7722,7 +7720,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="39"/>
       <c r="B163" s="20" t="s">
         <v>145</v>
@@ -7742,7 +7740,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="39">
         <v>37926</v>
       </c>
@@ -7768,7 +7766,7 @@
         <v>37944</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="39"/>
       <c r="B165" s="20" t="s">
         <v>146</v>
@@ -7788,7 +7786,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="47"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="39">
         <v>37956</v>
       </c>
@@ -7814,7 +7812,7 @@
         <v>37973</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="39"/>
       <c r="B167" s="20" t="s">
         <v>46</v>
@@ -7836,7 +7834,7 @@
         <v>37978</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="39"/>
       <c r="B168" s="20" t="s">
         <v>46</v>
@@ -7858,7 +7856,7 @@
         <v>37984</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="39"/>
       <c r="B169" s="20" t="s">
         <v>147</v>
@@ -7878,7 +7876,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="47"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="46" t="s">
         <v>148</v>
       </c>
@@ -7896,7 +7894,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="47"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="39">
         <v>37987</v>
       </c>
@@ -7922,7 +7920,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="39"/>
       <c r="B172" s="20" t="s">
         <v>46</v>
@@ -7944,7 +7942,7 @@
         <v>38007</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="39"/>
       <c r="B173" s="20" t="s">
         <v>149</v>
@@ -7964,7 +7962,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="47"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="39">
         <v>38018</v>
       </c>
@@ -7988,7 +7986,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="39">
         <v>38047</v>
       </c>
@@ -8012,7 +8010,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="39"/>
       <c r="B176" s="20" t="s">
         <v>46</v>
@@ -8032,7 +8030,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="39">
         <v>38078</v>
       </c>
@@ -8058,7 +8056,7 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="39"/>
       <c r="B178" s="20" t="s">
         <v>46</v>
@@ -8080,7 +8078,7 @@
         <v>38104</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="39"/>
       <c r="B179" s="20" t="s">
         <v>153</v>
@@ -8100,7 +8098,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="47"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="39">
         <v>38108</v>
       </c>
@@ -8126,7 +8124,7 @@
         <v>38147</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="39"/>
       <c r="B181" s="20" t="s">
         <v>155</v>
@@ -8146,7 +8144,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="47"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="39">
         <v>38139</v>
       </c>
@@ -8170,7 +8168,7 @@
         <v>38141</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="39"/>
       <c r="B183" s="20" t="s">
         <v>166</v>
@@ -8190,7 +8188,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="39"/>
       <c r="B184" s="20" t="s">
         <v>154</v>
@@ -8210,7 +8208,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="39">
         <v>38169</v>
       </c>
@@ -8236,7 +8234,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="39"/>
       <c r="B186" s="20" t="s">
         <v>157</v>
@@ -8256,7 +8254,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="39">
         <v>38200</v>
       </c>
@@ -8280,7 +8278,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="39">
         <v>38231</v>
       </c>
@@ -8306,7 +8304,7 @@
         <v>38240</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="39"/>
       <c r="B189" s="20" t="s">
         <v>160</v>
@@ -8326,7 +8324,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="47"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="39">
         <v>38261</v>
       </c>
@@ -8352,7 +8350,7 @@
         <v>38264</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="39"/>
       <c r="B191" s="20" t="s">
         <v>48</v>
@@ -8374,7 +8372,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="39"/>
       <c r="B192" s="20" t="s">
         <v>45</v>
@@ -8396,7 +8394,7 @@
         <v>38289</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="39"/>
       <c r="B193" s="20" t="s">
         <v>46</v>
@@ -8418,7 +8416,7 @@
         <v>38279</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="39"/>
       <c r="B194" s="20" t="s">
         <v>162</v>
@@ -8438,7 +8436,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="47"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="39">
         <v>38292</v>
       </c>
@@ -8464,7 +8462,7 @@
         <v>38294</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="39"/>
       <c r="B196" s="20" t="s">
         <v>46</v>
@@ -8486,7 +8484,7 @@
         <v>38307</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="39"/>
       <c r="B197" s="20" t="s">
         <v>163</v>
@@ -8506,7 +8504,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="47"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="39">
         <v>38322</v>
       </c>
@@ -8530,7 +8528,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="46" t="s">
         <v>165</v>
       </c>
@@ -8548,7 +8546,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="39">
         <v>38353</v>
       </c>
@@ -8574,7 +8572,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="39"/>
       <c r="B201" s="20" t="s">
         <v>166</v>
@@ -8596,7 +8594,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="39"/>
       <c r="B202" s="20" t="s">
         <v>167</v>
@@ -8616,7 +8614,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="39">
         <v>38384</v>
       </c>
@@ -8640,7 +8638,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="39">
         <v>38412</v>
       </c>
@@ -8664,7 +8662,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="39">
         <v>38443</v>
       </c>
@@ -8688,7 +8686,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="39">
         <v>38473</v>
       </c>
@@ -8712,7 +8710,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="39"/>
       <c r="B207" s="20" t="s">
         <v>174</v>
@@ -8732,7 +8730,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="39">
         <v>38504</v>
       </c>
@@ -8756,7 +8754,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="39"/>
       <c r="B209" s="20" t="s">
         <v>54</v>
@@ -8776,7 +8774,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="39">
         <v>38534</v>
       </c>
@@ -8802,7 +8800,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
       <c r="B211" s="20" t="s">
         <v>166</v>
@@ -8824,7 +8822,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="39"/>
       <c r="B212" s="20" t="s">
         <v>135</v>
@@ -8844,7 +8842,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="39">
         <v>38565</v>
       </c>
@@ -8870,7 +8868,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="39"/>
       <c r="B214" s="20" t="s">
         <v>46</v>
@@ -8892,7 +8890,7 @@
         <v>38580</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="39"/>
       <c r="B215" s="20" t="s">
         <v>180</v>
@@ -8912,7 +8910,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="47"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="39">
         <v>38596</v>
       </c>
@@ -8936,7 +8934,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="39">
         <v>38626</v>
       </c>
@@ -8960,7 +8958,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="39">
         <v>38657</v>
       </c>
@@ -8984,7 +8982,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="39">
         <v>38687</v>
       </c>
@@ -9008,7 +9006,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="46" t="s">
         <v>185</v>
       </c>
@@ -9026,7 +9024,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="39">
         <v>38718</v>
       </c>
@@ -9050,7 +9048,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="39">
         <v>38749</v>
       </c>
@@ -9070,7 +9068,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="39">
         <v>38777</v>
       </c>
@@ -9090,7 +9088,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="39">
         <v>38808</v>
       </c>
@@ -9114,7 +9112,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="39">
         <v>38838</v>
       </c>
@@ -9134,7 +9132,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="39">
         <v>38869</v>
       </c>
@@ -9154,7 +9152,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="39">
         <v>38899</v>
       </c>
@@ -9178,7 +9176,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="39">
         <v>38930</v>
       </c>
@@ -9202,7 +9200,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="39">
         <v>38961</v>
       </c>
@@ -9228,7 +9226,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="39"/>
       <c r="B230" s="20" t="s">
         <v>54</v>
@@ -9248,7 +9246,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="39"/>
       <c r="B231" s="20" t="s">
         <v>68</v>
@@ -9268,7 +9266,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="39">
         <v>38991</v>
       </c>
@@ -9294,7 +9292,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="39"/>
       <c r="B233" s="20" t="s">
         <v>131</v>
@@ -9316,7 +9314,7 @@
         <v>39017</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="39">
         <v>39022</v>
       </c>
@@ -9340,7 +9338,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="39">
         <v>39052</v>
       </c>
@@ -9366,7 +9364,7 @@
         <v>39057</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="39"/>
       <c r="B236" s="20" t="s">
         <v>191</v>
@@ -9386,7 +9384,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="47"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="46" t="s">
         <v>192</v>
       </c>
@@ -9404,7 +9402,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="47"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="39">
         <v>39083</v>
       </c>
@@ -9430,7 +9428,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="39"/>
       <c r="B239" s="20" t="s">
         <v>194</v>
@@ -9450,7 +9448,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="39">
         <v>39114</v>
       </c>
@@ -9474,7 +9472,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="39">
         <v>39142</v>
       </c>
@@ -9498,7 +9496,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="39">
         <v>39173</v>
       </c>
@@ -9522,7 +9520,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="39">
         <v>39203</v>
       </c>
@@ -9546,7 +9544,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="39"/>
       <c r="B244" s="20" t="s">
         <v>199</v>
@@ -9564,7 +9562,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="39">
         <v>39234</v>
       </c>
@@ -9588,7 +9586,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="39">
         <v>39264</v>
       </c>
@@ -9612,7 +9610,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="39">
         <v>39295</v>
       </c>
@@ -9636,7 +9634,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="39">
         <v>39326</v>
       </c>
@@ -9656,7 +9654,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="39">
         <v>39356</v>
       </c>
@@ -9680,7 +9678,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="39">
         <v>39387</v>
       </c>
@@ -9700,7 +9698,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="39">
         <v>39417</v>
       </c>
@@ -9724,7 +9722,7 @@
       <c r="J251" s="12"/>
       <c r="K251" s="15"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="46" t="s">
         <v>204</v>
       </c>
@@ -9742,7 +9740,7 @@
       <c r="J252" s="12"/>
       <c r="K252" s="15"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="39">
         <v>39448</v>
       </c>
@@ -9762,7 +9760,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="39">
         <v>39479</v>
       </c>
@@ -9782,7 +9780,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="39">
         <v>39508</v>
       </c>
@@ -9806,7 +9804,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="39">
         <v>39539</v>
       </c>
@@ -9826,7 +9824,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="39">
         <v>39569</v>
       </c>
@@ -9850,7 +9848,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="39">
         <v>39600</v>
       </c>
@@ -9870,7 +9868,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="39">
         <v>39630</v>
       </c>
@@ -9896,7 +9894,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="39">
         <v>39661</v>
       </c>
@@ -9922,7 +9920,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="39">
         <v>39692</v>
       </c>
@@ -9942,7 +9940,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="39">
         <v>39722</v>
       </c>
@@ -9966,7 +9964,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="39">
         <v>39753</v>
       </c>
@@ -9986,7 +9984,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="39">
         <v>39783</v>
       </c>
@@ -10010,7 +10008,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="46" t="s">
         <v>211</v>
       </c>
@@ -10028,7 +10026,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="39">
         <v>39814</v>
       </c>
@@ -10052,7 +10050,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="39"/>
       <c r="B267" s="20" t="s">
         <v>213</v>
@@ -10072,7 +10070,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="39">
         <v>39845</v>
       </c>
@@ -10096,7 +10094,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="39"/>
       <c r="B269" s="20" t="s">
         <v>54</v>
@@ -10116,7 +10114,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="39">
         <v>39873</v>
       </c>
@@ -10142,7 +10140,7 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="39"/>
       <c r="B271" s="20" t="s">
         <v>215</v>
@@ -10162,7 +10160,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="47"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="39">
         <v>39904</v>
       </c>
@@ -10188,7 +10186,7 @@
         <v>39932</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="39"/>
       <c r="B273" s="20" t="s">
         <v>216</v>
@@ -10208,7 +10206,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="47"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="39">
         <v>39934</v>
       </c>
@@ -10232,7 +10230,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="39"/>
       <c r="B275" s="20" t="s">
         <v>218</v>
@@ -10252,7 +10250,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="39">
         <v>39965</v>
       </c>
@@ -10276,7 +10274,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="39">
         <v>39995</v>
       </c>
@@ -10300,7 +10298,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="39">
         <v>40026</v>
       </c>
@@ -10324,7 +10322,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="39">
         <v>40057</v>
       </c>
@@ -10350,7 +10348,7 @@
         <v>40085</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="39"/>
       <c r="B280" s="20" t="s">
         <v>61</v>
@@ -10372,7 +10370,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="39"/>
       <c r="B281" s="20" t="s">
         <v>131</v>
@@ -10394,7 +10392,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="39"/>
       <c r="B282" s="20" t="s">
         <v>222</v>
@@ -10414,7 +10412,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="47"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="39">
         <v>40087</v>
       </c>
@@ -10440,7 +10438,7 @@
         <v>40106</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="39"/>
       <c r="B284" s="20" t="s">
         <v>131</v>
@@ -10462,7 +10460,7 @@
         <v>40123</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="39"/>
       <c r="B285" s="20" t="s">
         <v>223</v>
@@ -10482,7 +10480,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="47"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="39">
         <v>40118</v>
       </c>
@@ -10506,7 +10504,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="39">
         <v>40148</v>
       </c>
@@ -10530,7 +10528,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="46" t="s">
         <v>224</v>
       </c>
@@ -10548,7 +10546,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="39">
         <v>40179</v>
       </c>
@@ -10572,7 +10570,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="39">
         <v>40210</v>
       </c>
@@ -10592,7 +10590,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="39">
         <v>40238</v>
       </c>
@@ -10612,7 +10610,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="39">
         <v>40269</v>
       </c>
@@ -10636,7 +10634,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="39"/>
       <c r="B293" s="20" t="s">
         <v>130</v>
@@ -10656,7 +10654,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="39">
         <v>40299</v>
       </c>
@@ -10680,7 +10678,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="39">
         <v>40330</v>
       </c>
@@ -10700,7 +10698,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="39">
         <v>40360</v>
       </c>
@@ -10726,7 +10724,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="39"/>
       <c r="B297" s="20" t="s">
         <v>229</v>
@@ -10748,7 +10746,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="39"/>
       <c r="B298" s="20" t="s">
         <v>231</v>
@@ -10768,7 +10766,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="39">
         <v>40391</v>
       </c>
@@ -10794,7 +10792,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="39"/>
       <c r="B300" s="20" t="s">
         <v>233</v>
@@ -10814,7 +10812,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="39">
         <v>40422</v>
       </c>
@@ -10838,7 +10836,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="39">
         <v>40452</v>
       </c>
@@ -10858,7 +10856,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="39">
         <v>40483</v>
       </c>
@@ -10878,7 +10876,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="39">
         <v>40513</v>
       </c>
@@ -10902,7 +10900,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="46" t="s">
         <v>235</v>
       </c>
@@ -10920,7 +10918,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="39">
         <v>40544</v>
       </c>
@@ -10944,7 +10942,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="39"/>
       <c r="B307" s="20" t="s">
         <v>46</v>
@@ -10966,7 +10964,7 @@
         <v>40584</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="39">
         <v>40575</v>
       </c>
@@ -10990,7 +10988,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="39">
         <v>40603</v>
       </c>
@@ -11016,7 +11014,7 @@
         <v>40616</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="39"/>
       <c r="B310" s="20" t="s">
         <v>141</v>
@@ -11036,7 +11034,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="47"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="39">
         <v>40634</v>
       </c>
@@ -11060,7 +11058,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="39"/>
       <c r="B312" s="20" t="s">
         <v>54</v>
@@ -11080,7 +11078,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="39"/>
       <c r="B313" s="20" t="s">
         <v>140</v>
@@ -11100,7 +11098,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="39">
         <v>40664</v>
       </c>
@@ -11124,7 +11122,7 @@
         <v>40689</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="39"/>
       <c r="B315" s="20" t="s">
         <v>239</v>
@@ -11142,7 +11140,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="47"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="39">
         <v>40695</v>
       </c>
@@ -11168,7 +11166,7 @@
         <v>40710</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="39"/>
       <c r="B317" s="20" t="s">
         <v>240</v>
@@ -11188,7 +11186,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="47"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="39">
         <v>40725</v>
       </c>
@@ -11212,7 +11210,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="39"/>
       <c r="B319" s="20" t="s">
         <v>241</v>
@@ -11232,7 +11230,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="39">
         <v>40756</v>
       </c>
@@ -11258,7 +11256,7 @@
         <v>40758</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="39"/>
       <c r="B321" s="20" t="s">
         <v>131</v>
@@ -11280,7 +11278,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="39"/>
       <c r="B322" s="20" t="s">
         <v>242</v>
@@ -11300,7 +11298,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="47"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="39">
         <v>40787</v>
       </c>
@@ -11326,7 +11324,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="39"/>
       <c r="B324" s="20" t="s">
         <v>46</v>
@@ -11348,7 +11346,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="39"/>
       <c r="B325" s="20" t="s">
         <v>245</v>
@@ -11368,7 +11366,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="47"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="39">
         <v>40817</v>
       </c>
@@ -11394,7 +11392,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="39"/>
       <c r="B327" s="20" t="s">
         <v>54</v>
@@ -11414,7 +11412,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="39"/>
       <c r="B328" s="20" t="s">
         <v>46</v>
@@ -11436,7 +11434,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="39"/>
       <c r="B329" s="20" t="s">
         <v>247</v>
@@ -11456,7 +11454,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="47"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="39">
         <v>40848</v>
       </c>
@@ -11482,7 +11480,7 @@
         <v>40857</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="39"/>
       <c r="B331" s="20" t="s">
         <v>46</v>
@@ -11504,7 +11502,7 @@
         <v>40863</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="39"/>
       <c r="B332" s="20" t="s">
         <v>248</v>
@@ -11524,7 +11522,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="47"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="39">
         <v>40878</v>
       </c>
@@ -11550,7 +11548,7 @@
         <v>40879</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="39"/>
       <c r="B334" s="20" t="s">
         <v>243</v>
@@ -11572,7 +11570,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="39"/>
       <c r="B335" s="20" t="s">
         <v>166</v>
@@ -11594,7 +11592,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="39"/>
       <c r="B336" s="20" t="s">
         <v>243</v>
@@ -11614,7 +11612,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="47"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="39"/>
       <c r="B337" s="20" t="s">
         <v>194</v>
@@ -11634,7 +11632,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="47"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="46" t="s">
         <v>251</v>
       </c>
@@ -11652,7 +11650,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="47"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="39">
         <v>40909</v>
       </c>
@@ -11676,7 +11674,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="39">
         <v>40940</v>
       </c>
@@ -11702,7 +11700,7 @@
         <v>40949</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="39"/>
       <c r="B341" s="20" t="s">
         <v>54</v>
@@ -11722,7 +11720,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="39"/>
       <c r="B342" s="20" t="s">
         <v>254</v>
@@ -11742,7 +11740,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="47"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="39">
         <v>40969</v>
       </c>
@@ -11768,7 +11766,7 @@
         <v>40983</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="39"/>
       <c r="B344" s="20" t="s">
         <v>255</v>
@@ -11788,7 +11786,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="47"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="39">
         <v>41000</v>
       </c>
@@ -11814,7 +11812,7 @@
         <v>41009</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="39"/>
       <c r="B346" s="20" t="s">
         <v>54</v>
@@ -11834,7 +11832,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="39"/>
       <c r="B347" s="20" t="s">
         <v>46</v>
@@ -11856,7 +11854,7 @@
         <v>41017</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="39"/>
       <c r="B348" s="20" t="s">
         <v>257</v>
@@ -11876,7 +11874,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="47"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39">
         <v>41030</v>
       </c>
@@ -11902,7 +11900,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="39"/>
       <c r="B350" s="20" t="s">
         <v>259</v>
@@ -11922,7 +11920,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="39">
         <v>41061</v>
       </c>
@@ -11946,7 +11944,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="39">
         <v>41091</v>
       </c>
@@ -11970,7 +11968,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="39">
         <v>41122</v>
       </c>
@@ -11994,7 +11992,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="39">
         <v>41153</v>
       </c>
@@ -12014,7 +12012,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39">
         <v>41183</v>
       </c>
@@ -12034,7 +12032,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39">
         <v>41214</v>
       </c>
@@ -12054,7 +12052,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="39">
         <v>41244</v>
       </c>
@@ -12080,7 +12078,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="46" t="s">
         <v>263</v>
       </c>
@@ -12098,7 +12096,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="39">
         <v>41275</v>
       </c>
@@ -12122,7 +12120,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="39">
         <v>41306</v>
       </c>
@@ -12146,7 +12144,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39">
         <v>41334</v>
       </c>
@@ -12170,7 +12168,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39">
         <v>41365</v>
       </c>
@@ -12194,7 +12192,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39">
         <v>41395</v>
       </c>
@@ -12218,7 +12216,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="39">
         <v>41426</v>
       </c>
@@ -12242,7 +12240,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39">
         <v>41456</v>
       </c>
@@ -12266,7 +12264,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39">
         <v>41487</v>
       </c>
@@ -12290,7 +12288,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="39">
         <v>41518</v>
       </c>
@@ -12314,7 +12312,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39">
         <v>41548</v>
       </c>
@@ -12338,7 +12336,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="39"/>
       <c r="B369" s="20" t="s">
         <v>272</v>
@@ -12358,7 +12356,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="39">
         <v>41579</v>
       </c>
@@ -12382,7 +12380,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39">
         <v>41609</v>
       </c>
@@ -12406,7 +12404,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="46" t="s">
         <v>274</v>
       </c>
@@ -12424,7 +12422,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39">
         <v>41640</v>
       </c>
@@ -12448,7 +12446,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="39">
         <v>41671</v>
       </c>
@@ -12472,7 +12470,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="39"/>
       <c r="B375" s="20" t="s">
         <v>51</v>
@@ -12494,7 +12492,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="39">
         <v>41699</v>
       </c>
@@ -12518,7 +12516,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="39"/>
       <c r="B377" s="20" t="s">
         <v>46</v>
@@ -12540,7 +12538,7 @@
         <v>41725</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="39">
         <v>41730</v>
       </c>
@@ -12564,7 +12562,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="39">
         <v>41760</v>
       </c>
@@ -12588,7 +12586,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="39">
         <v>41791</v>
       </c>
@@ -12612,7 +12610,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="39">
         <v>41821</v>
       </c>
@@ -12636,7 +12634,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39">
         <v>41852</v>
       </c>
@@ -12660,7 +12658,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="39">
         <v>41883</v>
       </c>
@@ -12684,7 +12682,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="39">
         <v>41913</v>
       </c>
@@ -12708,7 +12706,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39"/>
       <c r="B385" s="20" t="s">
         <v>166</v>
@@ -12730,7 +12728,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="39">
         <v>41944</v>
       </c>
@@ -12756,7 +12754,7 @@
         <v>41946</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39"/>
       <c r="B387" s="20" t="s">
         <v>51</v>
@@ -12778,7 +12776,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39"/>
       <c r="B388" s="20" t="s">
         <v>285</v>
@@ -12800,7 +12798,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39"/>
       <c r="B389" s="20" t="s">
         <v>287</v>
@@ -12820,7 +12818,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="47"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39">
         <v>41974</v>
       </c>
@@ -12846,7 +12844,7 @@
         <v>41982</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39"/>
       <c r="B391" s="20" t="s">
         <v>289</v>
@@ -12866,7 +12864,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="47"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39"/>
       <c r="B392" s="20" t="s">
         <v>243</v>
@@ -12886,7 +12884,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="47"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="46" t="s">
         <v>288</v>
       </c>
@@ -12904,7 +12902,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="39">
         <v>42005</v>
       </c>
@@ -12928,7 +12926,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39"/>
       <c r="B395" s="20" t="s">
         <v>291</v>
@@ -12948,7 +12946,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="39">
         <v>42036</v>
       </c>
@@ -12974,7 +12972,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -12996,7 +12994,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39"/>
       <c r="B398" s="20" t="s">
         <v>48</v>
@@ -13018,7 +13016,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39"/>
       <c r="B399" s="20" t="s">
         <v>294</v>
@@ -13038,7 +13036,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="39">
         <v>42064</v>
       </c>
@@ -13064,7 +13062,7 @@
         <v>42087</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="39"/>
       <c r="B401" s="20" t="s">
         <v>295</v>
@@ -13084,7 +13082,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="47"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39">
         <v>42095</v>
       </c>
@@ -13108,7 +13106,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="39"/>
       <c r="B403" s="20" t="s">
         <v>297</v>
@@ -13128,7 +13126,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="39">
         <v>42125</v>
       </c>
@@ -13154,7 +13152,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39"/>
       <c r="B405" s="20" t="s">
         <v>298</v>
@@ -13174,7 +13172,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="47"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="39">
         <v>42156</v>
       </c>
@@ -13200,7 +13198,7 @@
         <v>42135</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="39"/>
       <c r="B407" s="20" t="s">
         <v>46</v>
@@ -13218,7 +13216,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="47"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="39"/>
       <c r="B408" s="20" t="s">
         <v>299</v>
@@ -13238,7 +13236,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="47"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="39">
         <v>42186</v>
       </c>
@@ -13262,7 +13260,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="39">
         <v>42217</v>
       </c>
@@ -13288,7 +13286,7 @@
         <v>42223</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="39"/>
       <c r="B411" s="20" t="s">
         <v>46</v>
@@ -13310,7 +13308,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="39"/>
       <c r="B412" s="20" t="s">
         <v>300</v>
@@ -13330,7 +13328,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="47"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="39">
         <v>42248</v>
       </c>
@@ -13356,7 +13354,7 @@
         <v>42262</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="39"/>
       <c r="B414" s="20" t="s">
         <v>191</v>
@@ -13378,7 +13376,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="39"/>
       <c r="B415" s="20" t="s">
         <v>127</v>
@@ -13398,7 +13396,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="39"/>
       <c r="B416" s="20" t="s">
         <v>46</v>
@@ -13420,7 +13418,7 @@
         <v>42271</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="39"/>
       <c r="B417" s="20" t="s">
         <v>48</v>
@@ -13442,7 +13440,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39"/>
       <c r="B418" s="20" t="s">
         <v>301</v>
@@ -13462,7 +13460,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="39">
         <v>42278</v>
       </c>
@@ -13488,7 +13486,7 @@
         <v>42307</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39"/>
       <c r="B420" s="20" t="s">
         <v>46</v>
@@ -13510,7 +13508,7 @@
         <v>42293</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39"/>
       <c r="B421" s="20" t="s">
         <v>46</v>
@@ -13532,7 +13530,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39"/>
       <c r="B422" s="20" t="s">
         <v>304</v>
@@ -13552,7 +13550,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="47"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39">
         <v>42309</v>
       </c>
@@ -13578,7 +13576,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39"/>
       <c r="B424" s="20" t="s">
         <v>48</v>
@@ -13600,7 +13598,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="39"/>
       <c r="B425" s="20" t="s">
         <v>46</v>
@@ -13622,7 +13620,7 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39"/>
       <c r="B426" s="20" t="s">
         <v>46</v>
@@ -13644,7 +13642,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39"/>
       <c r="B427" s="20" t="s">
         <v>46</v>
@@ -13666,7 +13664,7 @@
         <v>42347</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39"/>
       <c r="B428" s="20" t="s">
         <v>307</v>
@@ -13686,7 +13684,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="39">
         <v>42339</v>
       </c>
@@ -13712,7 +13710,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="39"/>
       <c r="B430" s="20" t="s">
         <v>308</v>
@@ -13732,7 +13730,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="46" t="s">
         <v>309</v>
       </c>
@@ -13750,7 +13748,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39">
         <v>42370</v>
       </c>
@@ -13776,7 +13774,7 @@
         <v>42395</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39"/>
       <c r="B433" s="20" t="s">
         <v>310</v>
@@ -13796,7 +13794,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="47"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="39">
         <v>42401</v>
       </c>
@@ -13822,7 +13820,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39"/>
       <c r="B435" s="20" t="s">
         <v>46</v>
@@ -13844,7 +13842,7 @@
         <v>42412</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="39"/>
       <c r="B436" s="20" t="s">
         <v>46</v>
@@ -13866,7 +13864,7 @@
         <v>42423</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39"/>
       <c r="B437" s="20" t="s">
         <v>312</v>
@@ -13886,7 +13884,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39">
         <v>42430</v>
       </c>
@@ -13912,7 +13910,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39"/>
       <c r="B439" s="20" t="s">
         <v>45</v>
@@ -13934,7 +13932,7 @@
         <v>42446</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39"/>
       <c r="B440" s="20" t="s">
         <v>48</v>
@@ -13956,7 +13954,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39"/>
       <c r="B441" s="20" t="s">
         <v>315</v>
@@ -13976,7 +13974,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39">
         <v>42461</v>
       </c>
@@ -14000,7 +13998,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39">
         <v>42491</v>
       </c>
@@ -14024,7 +14022,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="39">
         <v>42522</v>
       </c>
@@ -14050,7 +14048,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39"/>
       <c r="B445" s="20" t="s">
         <v>48</v>
@@ -14072,7 +14070,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39"/>
       <c r="B446" s="20" t="s">
         <v>46</v>
@@ -14094,7 +14092,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39"/>
       <c r="B447" s="20" t="s">
         <v>46</v>
@@ -14116,7 +14114,7 @@
         <v>42535</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39"/>
       <c r="B448" s="20" t="s">
         <v>166</v>
@@ -14138,7 +14136,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39"/>
       <c r="B449" s="20" t="s">
         <v>320</v>
@@ -14158,7 +14156,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39">
         <v>42552</v>
       </c>
@@ -14182,7 +14180,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39">
         <v>42583</v>
       </c>
@@ -14206,7 +14204,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="39"/>
       <c r="B452" s="20" t="s">
         <v>48</v>
@@ -14228,7 +14226,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39"/>
       <c r="B453" s="20" t="s">
         <v>48</v>
@@ -14250,7 +14248,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="39"/>
       <c r="B454" s="20" t="s">
         <v>46</v>
@@ -14272,7 +14270,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="39"/>
       <c r="B455" s="20" t="s">
         <v>326</v>
@@ -14292,7 +14290,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="39">
         <v>42614</v>
       </c>
@@ -14318,7 +14316,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="39"/>
       <c r="B457" s="20" t="s">
         <v>166</v>
@@ -14340,7 +14338,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="39"/>
       <c r="B458" s="20" t="s">
         <v>46</v>
@@ -14362,7 +14360,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="39"/>
       <c r="B459" s="20" t="s">
         <v>328</v>
@@ -14382,7 +14380,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="47"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="39">
         <v>42644</v>
       </c>
@@ -14406,7 +14404,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="39"/>
       <c r="B461" s="20" t="s">
         <v>54</v>
@@ -14426,7 +14424,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="39"/>
       <c r="B462" s="20" t="s">
         <v>330</v>
@@ -14446,7 +14444,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="39">
         <v>42675</v>
       </c>
@@ -14472,7 +14470,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="39"/>
       <c r="B464" s="20" t="s">
         <v>48</v>
@@ -14494,7 +14492,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="39"/>
       <c r="B465" s="20" t="s">
         <v>332</v>
@@ -14514,7 +14512,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="47"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="39">
         <v>42705</v>
       </c>
@@ -14540,7 +14538,7 @@
         <v>42716</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39"/>
       <c r="B467" s="20" t="s">
         <v>333</v>
@@ -14560,7 +14558,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="47"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="46" t="s">
         <v>334</v>
       </c>
@@ -14578,7 +14576,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="47"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="39">
         <v>42736</v>
       </c>
@@ -14602,7 +14600,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="39">
         <v>42767</v>
       </c>
@@ -14628,7 +14626,7 @@
         <v>42410</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="39"/>
       <c r="B471" s="20" t="s">
         <v>45</v>
@@ -14650,7 +14648,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="39"/>
       <c r="B472" s="20" t="s">
         <v>336</v>
@@ -14670,7 +14668,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="47"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="39">
         <v>42795</v>
       </c>
@@ -14696,7 +14694,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="39"/>
       <c r="B474" s="20" t="s">
         <v>51</v>
@@ -14718,7 +14716,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="39"/>
       <c r="B475" s="20" t="s">
         <v>339</v>
@@ -14738,7 +14736,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="39">
         <v>42826</v>
       </c>
@@ -14764,7 +14762,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="39"/>
       <c r="B477" s="20" t="s">
         <v>340</v>
@@ -14784,7 +14782,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="39">
         <v>42856</v>
       </c>
@@ -14810,7 +14808,7 @@
         <v>42499</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="39">
         <v>42887</v>
       </c>
@@ -14830,7 +14828,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="39">
         <v>42917</v>
       </c>
@@ -14856,7 +14854,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="39"/>
       <c r="B481" s="20" t="s">
         <v>343</v>
@@ -14876,7 +14874,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="39">
         <v>42948</v>
       </c>
@@ -14900,7 +14898,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="39">
         <v>42979</v>
       </c>
@@ -14924,7 +14922,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="39">
         <v>43009</v>
       </c>
@@ -14950,7 +14948,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="39"/>
       <c r="B485" s="20" t="s">
         <v>54</v>
@@ -14970,7 +14968,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="39"/>
       <c r="B486" s="20" t="s">
         <v>346</v>
@@ -14992,7 +14990,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="39"/>
       <c r="B487" s="20" t="s">
         <v>54</v>
@@ -15012,7 +15010,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="39"/>
       <c r="B488" s="20" t="s">
         <v>349</v>
@@ -15032,7 +15030,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="39">
         <v>43040</v>
       </c>
@@ -15058,7 +15056,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="39">
         <v>43070</v>
       </c>
@@ -15084,7 +15082,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="46" t="s">
         <v>352</v>
       </c>
@@ -15102,7 +15100,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="39">
         <v>43101</v>
       </c>
@@ -15122,7 +15120,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="39">
         <v>43132</v>
       </c>
@@ -15148,7 +15146,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="39"/>
       <c r="B494" s="20" t="s">
         <v>54</v>
@@ -15168,7 +15166,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="39">
         <v>43160</v>
       </c>
@@ -15188,7 +15186,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="39">
         <v>43191</v>
       </c>
@@ -15214,7 +15212,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="39"/>
       <c r="B497" s="20" t="s">
         <v>46</v>
@@ -15236,7 +15234,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="39"/>
       <c r="B498" s="20" t="s">
         <v>46</v>
@@ -15258,7 +15256,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="39"/>
       <c r="B499" s="20" t="s">
         <v>166</v>
@@ -15280,7 +15278,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="39"/>
       <c r="B500" s="20" t="s">
         <v>45</v>
@@ -15302,7 +15300,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="39">
         <v>43221</v>
       </c>
@@ -15328,7 +15326,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="39"/>
       <c r="B502" s="20" t="s">
         <v>48</v>
@@ -15350,7 +15348,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="39"/>
       <c r="B503" s="20" t="s">
         <v>358</v>
@@ -15370,7 +15368,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="47"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="39">
         <v>43252</v>
       </c>
@@ -15396,7 +15394,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="39"/>
       <c r="B505" s="20" t="s">
         <v>360</v>
@@ -15416,7 +15414,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="39">
         <v>43282</v>
       </c>
@@ -15442,7 +15440,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="39"/>
       <c r="B507" s="20" t="s">
         <v>46</v>
@@ -15464,7 +15462,7 @@
         <v>43306</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="39"/>
       <c r="B508" s="20" t="s">
         <v>87</v>
@@ -15484,7 +15482,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="47"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="39">
         <v>43313</v>
       </c>
@@ -15510,7 +15508,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="39"/>
       <c r="B510" s="20" t="s">
         <v>48</v>
@@ -15532,7 +15530,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="39"/>
       <c r="B511" s="20" t="s">
         <v>166</v>
@@ -15554,7 +15552,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="39"/>
       <c r="B512" s="20" t="s">
         <v>166</v>
@@ -15576,7 +15574,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="39"/>
       <c r="B513" s="20" t="s">
         <v>48</v>
@@ -15598,7 +15596,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="39"/>
       <c r="B514" s="20" t="s">
         <v>47</v>
@@ -15618,7 +15616,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="47"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="39">
         <v>43344</v>
       </c>
@@ -15644,7 +15642,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="39"/>
       <c r="B516" s="20" t="s">
         <v>166</v>
@@ -15666,7 +15664,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="39"/>
       <c r="B517" s="20" t="s">
         <v>367</v>
@@ -15688,7 +15686,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="39">
         <v>43374</v>
       </c>
@@ -15712,7 +15710,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="39"/>
       <c r="B519" s="20" t="s">
         <v>368</v>
@@ -15732,7 +15730,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="39">
         <v>43405</v>
       </c>
@@ -15756,7 +15754,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="39"/>
       <c r="B521" s="20" t="s">
         <v>46</v>
@@ -15778,7 +15776,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="39"/>
       <c r="B522" s="20" t="s">
         <v>46</v>
@@ -15800,7 +15798,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="39"/>
       <c r="B523" s="20" t="s">
         <v>369</v>
@@ -15820,7 +15818,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="47"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="39">
         <v>43435</v>
       </c>
@@ -15846,7 +15844,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="39"/>
       <c r="B525" s="20" t="s">
         <v>46</v>
@@ -15868,7 +15866,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="39"/>
       <c r="B526" s="20" t="s">
         <v>191</v>
@@ -15888,7 +15886,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="39"/>
       <c r="B527" s="20" t="s">
         <v>372</v>
@@ -15908,7 +15906,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="46" t="s">
         <v>371</v>
       </c>
@@ -15926,7 +15924,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="39">
         <v>43466</v>
       </c>
@@ -15952,7 +15950,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="39"/>
       <c r="B530" s="20" t="s">
         <v>375</v>
@@ -15972,7 +15970,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="39">
         <v>43497</v>
       </c>
@@ -15998,7 +15996,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="39"/>
       <c r="B532" s="20" t="s">
         <v>48</v>
@@ -16020,7 +16018,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="39"/>
       <c r="B533" s="20" t="s">
         <v>127</v>
@@ -16040,7 +16038,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="39"/>
       <c r="B534" s="20" t="s">
         <v>247</v>
@@ -16060,7 +16058,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="39">
         <v>43525</v>
       </c>
@@ -16086,7 +16084,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="39"/>
       <c r="B536" s="20" t="s">
         <v>221</v>
@@ -16106,7 +16104,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="39">
         <v>43556</v>
       </c>
@@ -16130,7 +16128,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="39"/>
       <c r="B538" s="20" t="s">
         <v>46</v>
@@ -16152,7 +16150,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="39"/>
       <c r="B539" s="20" t="s">
         <v>381</v>
@@ -16172,7 +16170,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="39">
         <v>43586</v>
       </c>
@@ -16198,7 +16196,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="39"/>
       <c r="B541" s="20" t="s">
         <v>46</v>
@@ -16220,7 +16218,7 @@
         <v>43615</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="39"/>
       <c r="B542" s="20" t="s">
         <v>344</v>
@@ -16240,7 +16238,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="47"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="39">
         <v>43617</v>
       </c>
@@ -16266,7 +16264,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="39"/>
       <c r="B544" s="20" t="s">
         <v>46</v>
@@ -16288,7 +16286,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="39"/>
       <c r="B545" s="20" t="s">
         <v>46</v>
@@ -16310,7 +16308,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="39"/>
       <c r="B546" s="20" t="s">
         <v>222</v>
@@ -16330,7 +16328,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="47"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="39">
         <v>43647</v>
       </c>
@@ -16356,7 +16354,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="39"/>
       <c r="B548" s="20" t="s">
         <v>77</v>
@@ -16376,7 +16374,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="39">
         <v>43678</v>
       </c>
@@ -16400,7 +16398,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="39">
         <v>43709</v>
       </c>
@@ -16426,7 +16424,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="39"/>
       <c r="B551" s="20" t="s">
         <v>46</v>
@@ -16448,7 +16446,7 @@
         <v>43734</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="39">
         <v>43739</v>
       </c>
@@ -16474,7 +16472,7 @@
         <v>43740</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="39"/>
       <c r="B553" s="20" t="s">
         <v>61</v>
@@ -16496,7 +16494,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="39"/>
       <c r="B554" s="20" t="s">
         <v>46</v>
@@ -16518,7 +16516,7 @@
         <v>43747</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="39"/>
       <c r="B555" s="20" t="s">
         <v>45</v>
@@ -16540,7 +16538,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="39">
         <v>43770</v>
       </c>
@@ -16566,7 +16564,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="39"/>
       <c r="B557" s="20" t="s">
         <v>46</v>
@@ -16586,7 +16584,7 @@
         <v>43796</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="39"/>
       <c r="B558" s="20" t="s">
         <v>48</v>
@@ -16608,7 +16606,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="39">
         <v>43800</v>
       </c>
@@ -16628,7 +16626,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="46" t="s">
         <v>387</v>
       </c>
@@ -16646,7 +16644,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="39">
         <v>43831</v>
       </c>
@@ -16672,7 +16670,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="39"/>
       <c r="B562" s="20" t="s">
         <v>389</v>
@@ -16692,7 +16690,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="39">
         <v>43862</v>
       </c>
@@ -16712,7 +16710,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="39">
         <v>43891</v>
       </c>
@@ -16732,7 +16730,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="39">
         <v>43922</v>
       </c>
@@ -16752,7 +16750,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="39">
         <v>43952</v>
       </c>
@@ -16772,7 +16770,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="39">
         <v>43983</v>
       </c>
@@ -16792,7 +16790,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="39">
         <v>44013</v>
       </c>
@@ -16816,7 +16814,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="39">
         <v>44044</v>
       </c>
@@ -16836,7 +16834,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="39">
         <v>44075</v>
       </c>
@@ -16862,7 +16860,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="39"/>
       <c r="B571" s="20" t="s">
         <v>46</v>
@@ -16882,7 +16880,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="39"/>
       <c r="B572" s="20" t="s">
         <v>46</v>
@@ -16902,7 +16900,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="39">
         <v>44105</v>
       </c>
@@ -16928,7 +16926,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="39"/>
       <c r="B574" s="20" t="s">
         <v>111</v>
@@ -16950,7 +16948,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="39"/>
       <c r="B575" s="20" t="s">
         <v>54</v>
@@ -16970,7 +16968,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="39"/>
       <c r="B576" s="20" t="s">
         <v>46</v>
@@ -16992,7 +16990,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="39"/>
       <c r="B577" s="20" t="s">
         <v>48</v>
@@ -17014,7 +17012,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="39"/>
       <c r="B578" s="20" t="s">
         <v>46</v>
@@ -17036,7 +17034,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="39">
         <v>44136</v>
       </c>
@@ -17056,7 +17054,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="39">
         <v>44166</v>
       </c>
@@ -17080,7 +17078,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="46" t="s">
         <v>395</v>
       </c>
@@ -17098,7 +17096,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="39">
         <v>44197</v>
       </c>
@@ -17118,7 +17116,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="39">
         <v>44228</v>
       </c>
@@ -17144,7 +17142,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="39">
         <v>44256</v>
       </c>
@@ -17164,7 +17162,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="39">
         <v>44287</v>
       </c>
@@ -17184,7 +17182,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="39">
         <v>44317</v>
       </c>
@@ -17204,7 +17202,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="39">
         <v>44348</v>
       </c>
@@ -17224,7 +17222,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="39">
         <v>44378</v>
       </c>
@@ -17248,7 +17246,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="39">
         <v>44409</v>
       </c>
@@ -17268,7 +17266,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="39">
         <v>44440</v>
       </c>
@@ -17288,7 +17286,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="39">
         <v>44470</v>
       </c>
@@ -17312,7 +17310,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="39"/>
       <c r="B592" s="20" t="s">
         <v>45</v>
@@ -17334,7 +17332,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="39">
         <v>44501</v>
       </c>
@@ -17360,7 +17358,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="39">
         <v>44531</v>
       </c>
@@ -17386,7 +17384,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="46" t="s">
         <v>400</v>
       </c>
@@ -17404,7 +17402,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="39">
         <v>44562</v>
       </c>
@@ -17430,7 +17428,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="39">
         <v>44593</v>
       </c>
@@ -17450,7 +17448,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="39">
         <v>44621</v>
       </c>
@@ -17474,7 +17472,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="39">
         <v>44652</v>
       </c>
@@ -17494,7 +17492,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="39">
         <v>44682</v>
       </c>
@@ -17514,7 +17512,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="39">
         <v>44713</v>
       </c>
@@ -17534,7 +17532,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="39">
         <v>44743</v>
       </c>
@@ -17558,7 +17556,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="39">
         <v>44774</v>
       </c>
@@ -17584,7 +17582,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="39">
         <v>44805</v>
       </c>
@@ -17610,7 +17608,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="39"/>
       <c r="B605" s="20" t="s">
         <v>46</v>
@@ -17632,7 +17630,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="39">
         <v>44835</v>
       </c>
@@ -17658,7 +17656,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="39"/>
       <c r="B607" s="20" t="s">
         <v>46</v>
@@ -17680,7 +17678,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="39">
         <v>44866</v>
       </c>
@@ -17706,7 +17704,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="39">
         <v>44896</v>
       </c>
@@ -17726,7 +17724,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="46" t="s">
         <v>404</v>
       </c>
@@ -17744,7 +17742,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="39">
         <v>44927</v>
       </c>
@@ -17770,7 +17768,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="39">
         <v>44958</v>
       </c>
@@ -17794,7 +17792,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="39">
         <v>44986</v>
       </c>
@@ -17820,11 +17818,13 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="39">
         <v>45017</v>
       </c>
-      <c r="B614" s="20"/>
+      <c r="B614" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="C614" s="13"/>
       <c r="D614" s="38"/>
       <c r="E614" s="9"/>
@@ -17833,16 +17833,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H614" s="38"/>
+      <c r="H614" s="38">
+        <v>3</v>
+      </c>
       <c r="I614" s="9"/>
       <c r="J614" s="11"/>
-      <c r="K614" s="20"/>
-    </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A615" s="39">
-        <v>45047</v>
-      </c>
-      <c r="B615" s="20"/>
+      <c r="K614" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A615" s="39"/>
+      <c r="B615" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C615" s="13"/>
       <c r="D615" s="38"/>
       <c r="E615" s="9"/>
@@ -17854,11 +17858,13 @@
       <c r="H615" s="38"/>
       <c r="I615" s="9"/>
       <c r="J615" s="11"/>
-      <c r="K615" s="20"/>
-    </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K615" s="47">
+        <v>45035</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="39">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17874,9 +17880,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="39">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17892,9 +17898,9 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="39">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17910,9 +17916,9 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17928,9 +17934,9 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17946,9 +17952,9 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17964,23 +17970,41 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B622" s="20"/>
+      <c r="C622" s="13"/>
+      <c r="D622" s="38"/>
+      <c r="E622" s="9"/>
+      <c r="F622" s="20"/>
+      <c r="G622" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H622" s="38"/>
+      <c r="I622" s="9"/>
+      <c r="J622" s="11"/>
+      <c r="K622" s="20"/>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A623" s="39">
         <v>45261</v>
       </c>
-      <c r="B622" s="15"/>
-      <c r="C622" s="40"/>
-      <c r="D622" s="41"/>
-      <c r="E622" s="51"/>
-      <c r="F622" s="15"/>
-      <c r="G622" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H622" s="41"/>
-      <c r="I622" s="51"/>
-      <c r="J622" s="12"/>
-      <c r="K622" s="15"/>
+      <c r="B623" s="15"/>
+      <c r="C623" s="40"/>
+      <c r="D623" s="41"/>
+      <c r="E623" s="51"/>
+      <c r="F623" s="15"/>
+      <c r="G623" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H623" s="41"/>
+      <c r="I623" s="51"/>
+      <c r="J623" s="12"/>
+      <c r="K623" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17997,10 +18021,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18023,7 +18047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -18031,21 +18055,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -18058,7 +18082,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18087,7 +18111,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>29.667999999999999</v>
       </c>
@@ -18115,17 +18139,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -18146,7 +18170,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -18173,7 +18197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -18199,7 +18223,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -18225,7 +18249,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -18251,7 +18275,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -18277,7 +18301,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -18303,7 +18327,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -18329,7 +18353,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -18355,7 +18379,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -18375,7 +18399,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -18395,7 +18419,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -18415,7 +18439,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -18436,7 +18460,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -18457,7 +18481,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -18478,7 +18502,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -18499,7 +18523,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -18520,7 +18544,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -18541,7 +18565,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -18562,7 +18586,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -18583,7 +18607,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -18604,7 +18628,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -18625,7 +18649,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -18646,7 +18670,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -18667,7 +18691,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -18688,7 +18712,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -18709,7 +18733,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -18730,7 +18754,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -18751,7 +18775,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -18772,7 +18796,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -18793,7 +18817,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -18814,7 +18838,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -18835,7 +18859,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -18844,7 +18868,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -18853,7 +18877,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -18862,7 +18886,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -18871,7 +18895,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -18880,7 +18904,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -18889,7 +18913,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -18898,7 +18922,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -18907,7 +18931,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -18916,7 +18940,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -18925,7 +18949,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -18934,7 +18958,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -18943,7 +18967,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -18952,7 +18976,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -18961,7 +18985,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -18970,7 +18994,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -18979,7 +19003,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -18988,7 +19012,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -18997,7 +19021,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -19006,7 +19030,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -19015,7 +19039,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -19024,7 +19048,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -19033,7 +19057,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -19042,7 +19066,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -19051,7 +19075,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -19060,7 +19084,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -19069,7 +19093,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -19078,7 +19102,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -19087,7 +19111,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -19096,7 +19120,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MIRANDA, MARIA LOIDA.xlsx
+++ b/REGULAR/MIRANDA, MARIA LOIDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="411">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2154,7 +2154,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2197,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2261,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2321,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2387,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2450,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2548,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2607,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +2672,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2715,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2790,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2976,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3042,7 +3042,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3100,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,7 +3166,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3222,7 +3222,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,7 +3297,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +3340,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +3406,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3462,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,7 +3560,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3623,7 +3623,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4070,9 +4070,9 @@
   <dimension ref="A2:K623"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A612" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A609" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B616" sqref="B616"/>
+      <selection pane="bottomLeft" activeCell="B617" sqref="B617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4239,7 +4239,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>119.65500000000003</v>
+        <v>120.90500000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4249,7 +4249,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>100.02600000000002</v>
+        <v>100.27600000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17825,13 +17825,15 @@
       <c r="B614" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C614" s="13"/>
+      <c r="C614" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D614" s="38"/>
       <c r="E614" s="9"/>
       <c r="F614" s="20"/>
-      <c r="G614" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G614" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H614" s="38">
         <v>3</v>
@@ -17866,7 +17868,9 @@
       <c r="A616" s="39">
         <v>45047</v>
       </c>
-      <c r="B616" s="20"/>
+      <c r="B616" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C616" s="13"/>
       <c r="D616" s="38"/>
       <c r="E616" s="9"/>
@@ -17875,10 +17879,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H616" s="38"/>
+      <c r="H616" s="38">
+        <v>1</v>
+      </c>
       <c r="I616" s="9"/>
       <c r="J616" s="11"/>
-      <c r="K616" s="20"/>
+      <c r="K616" s="47">
+        <v>45044</v>
+      </c>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="39">

--- a/REGULAR/MIRANDA, MARIA LOIDA.xlsx
+++ b/REGULAR/MIRANDA, MARIA LOIDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="411">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2154,7 +2154,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2197,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2261,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2321,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2387,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2450,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2548,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2607,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +2672,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2715,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2790,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2976,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3042,7 +3042,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3100,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,7 +3166,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3222,7 +3222,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,7 +3297,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +3340,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +3406,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3462,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,7 +3560,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3623,7 +3623,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3689,7 +3689,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K623" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K624" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4067,12 +4067,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K623"/>
+  <dimension ref="A2:K624"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A609" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B617" sqref="B617"/>
+      <selection pane="bottomLeft" activeCell="B618" sqref="B618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4249,7 +4249,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>100.27600000000002</v>
+        <v>99.276000000000025</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17889,10 +17889,10 @@
       </c>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A617" s="39">
-        <v>45078</v>
-      </c>
-      <c r="B617" s="20"/>
+      <c r="A617" s="39"/>
+      <c r="B617" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C617" s="13"/>
       <c r="D617" s="38"/>
       <c r="E617" s="9"/>
@@ -17901,14 +17901,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H617" s="38"/>
+      <c r="H617" s="38">
+        <v>1</v>
+      </c>
       <c r="I617" s="9"/>
       <c r="J617" s="11"/>
-      <c r="K617" s="20"/>
+      <c r="K617" s="47">
+        <v>45056</v>
+      </c>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="39">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17926,7 +17930,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="39">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17944,7 +17948,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17962,7 +17966,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17980,7 +17984,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17998,21 +18002,39 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B623" s="20"/>
+      <c r="C623" s="13"/>
+      <c r="D623" s="38"/>
+      <c r="E623" s="9"/>
+      <c r="F623" s="20"/>
+      <c r="G623" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H623" s="38"/>
+      <c r="I623" s="9"/>
+      <c r="J623" s="11"/>
+      <c r="K623" s="20"/>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A624" s="39">
         <v>45261</v>
       </c>
-      <c r="B623" s="15"/>
-      <c r="C623" s="40"/>
-      <c r="D623" s="41"/>
-      <c r="E623" s="51"/>
-      <c r="F623" s="15"/>
-      <c r="G623" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H623" s="41"/>
-      <c r="I623" s="51"/>
-      <c r="J623" s="12"/>
-      <c r="K623" s="15"/>
+      <c r="B624" s="15"/>
+      <c r="C624" s="40"/>
+      <c r="D624" s="41"/>
+      <c r="E624" s="51"/>
+      <c r="F624" s="15"/>
+      <c r="G624" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H624" s="41"/>
+      <c r="I624" s="51"/>
+      <c r="J624" s="12"/>
+      <c r="K624" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MIRANDA, MARIA LOIDA.xlsx
+++ b/REGULAR/MIRANDA, MARIA LOIDA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E687FFB-5017-4C11-95E4-2A6ECE917B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="411">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1272,7 +1273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2154,7 +2155,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2198,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2262,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2322,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2388,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2451,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2549,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2608,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +2673,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2716,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2791,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2977,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3042,7 +3043,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3101,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,7 +3167,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3222,7 +3223,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,7 +3298,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +3341,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +3407,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3463,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,7 +3561,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3623,7 +3624,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3689,25 +3690,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K624" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K625" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3719,13 +3720,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3734,14 +3735,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4045,7 +4046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4055,7 +4056,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4063,34 +4064,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K624"/>
+  <dimension ref="A2:K625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A609" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B618" sqref="B618"/>
+      <pane ySplit="3696" topLeftCell="A609" activePane="bottomLeft"/>
+      <selection activeCell="A8" sqref="A8:K8"/>
+      <selection pane="bottomLeft" activeCell="H619" sqref="H619"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4113,7 +4114,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4135,7 +4136,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4157,7 +4158,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4165,7 +4166,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4178,7 +4179,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -4195,7 +4196,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4230,7 +4231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4249,12 +4250,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>99.276000000000025</v>
+        <v>98.276000000000025</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>44</v>
       </c>
@@ -4276,7 +4277,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="39">
         <v>35796</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>35818</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4324,7 +4325,7 @@
         <v>35823</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="20" t="s">
         <v>47</v>
@@ -4344,7 +4345,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="47"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
         <v>35827</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -4392,7 +4393,7 @@
         <v>35829</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
       <c r="B16" s="20" t="s">
         <v>51</v>
@@ -4414,7 +4415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -4436,7 +4437,7 @@
         <v>35852</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="39"/>
       <c r="B18" s="20" t="s">
         <v>52</v>
@@ -4456,7 +4457,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="47"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <v>35855</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>35864</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="39"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -4504,7 +4505,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="39"/>
       <c r="B21" s="20" t="s">
         <v>54</v>
@@ -4524,7 +4525,7 @@
         <v>35874</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="20" t="s">
         <v>45</v>
@@ -4546,7 +4547,7 @@
         <v>35879</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="20" t="s">
         <v>55</v>
@@ -4566,7 +4567,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
         <v>35886</v>
       </c>
@@ -4592,7 +4593,7 @@
         <v>35893</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="20" t="s">
         <v>56</v>
@@ -4612,7 +4613,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="47"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
         <v>35916</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="39"/>
       <c r="B27" s="15" t="s">
         <v>46</v>
@@ -4658,7 +4659,7 @@
         <v>35937</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="15" t="s">
         <v>57</v>
@@ -4678,7 +4679,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="48"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
         <v>35947</v>
       </c>
@@ -4704,7 +4705,7 @@
         <v>35948</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="39"/>
       <c r="B30" s="15" t="s">
         <v>54</v>
@@ -4724,7 +4725,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="39"/>
       <c r="B31" s="15" t="s">
         <v>57</v>
@@ -4744,7 +4745,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="48"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
         <v>35977</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>36007</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="39"/>
       <c r="B33" s="20" t="s">
         <v>57</v>
@@ -4790,7 +4791,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="47"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="39">
         <v>36008</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>36034</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>
       <c r="B35" s="20" t="s">
         <v>59</v>
@@ -4836,7 +4837,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="47"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
         <v>36039</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>36068</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="39"/>
       <c r="B37" s="20" t="s">
         <v>60</v>
@@ -4882,7 +4883,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="47"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="39">
         <v>36069</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="39"/>
       <c r="B39" s="20" t="s">
         <v>63</v>
@@ -4928,7 +4929,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="39">
         <v>36100</v>
       </c>
@@ -4954,7 +4955,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="39">
         <v>36130</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>36111</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="39"/>
       <c r="B42" s="20" t="s">
         <v>65</v>
@@ -5000,7 +5001,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="47"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="46" t="s">
         <v>66</v>
       </c>
@@ -5018,7 +5019,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="47"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="39">
         <v>36161</v>
       </c>
@@ -5044,7 +5045,7 @@
         <v>36189</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="39"/>
       <c r="B45" s="20" t="s">
         <v>67</v>
@@ -5064,7 +5065,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="47"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="39">
         <v>36192</v>
       </c>
@@ -5090,7 +5091,7 @@
         <v>36206</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="20" t="s">
         <v>68</v>
@@ -5110,7 +5111,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="39">
         <v>36220</v>
       </c>
@@ -5134,7 +5135,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="39">
         <v>36251</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>36262</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="39"/>
       <c r="B50" s="20" t="s">
         <v>46</v>
@@ -5182,7 +5183,7 @@
         <v>36263</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="39"/>
       <c r="B51" s="20" t="s">
         <v>70</v>
@@ -5202,7 +5203,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="47"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="39">
         <v>36281</v>
       </c>
@@ -5228,7 +5229,7 @@
         <v>36297</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="39"/>
       <c r="B53" s="20" t="s">
         <v>71</v>
@@ -5248,7 +5249,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="47"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="39">
         <v>36312</v>
       </c>
@@ -5272,7 +5273,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="39"/>
       <c r="B55" s="20" t="s">
         <v>54</v>
@@ -5292,7 +5293,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="39"/>
       <c r="B56" s="20" t="s">
         <v>46</v>
@@ -5314,7 +5315,7 @@
         <v>36340</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="39"/>
       <c r="B57" s="20" t="s">
         <v>74</v>
@@ -5334,7 +5335,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="47"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="39">
         <v>36342</v>
       </c>
@@ -5358,7 +5359,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="39">
         <v>36373</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>36364</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="20" t="s">
         <v>76</v>
@@ -5404,7 +5405,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="47"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="39">
         <v>36404</v>
       </c>
@@ -5428,7 +5429,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="39">
         <v>36434</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
       <c r="B63" s="20" t="s">
         <v>54</v>
@@ -5474,7 +5475,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="39"/>
       <c r="B64" s="20" t="s">
         <v>81</v>
@@ -5496,7 +5497,7 @@
         <v>36457</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="39">
         <v>36465</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>36481</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="39"/>
       <c r="B66" s="20" t="s">
         <v>82</v>
@@ -5542,7 +5543,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="47"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="39">
         <v>36495</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>36502</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="20" t="s">
         <v>83</v>
@@ -5588,7 +5589,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="47"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="46" t="s">
         <v>84</v>
       </c>
@@ -5606,7 +5607,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="47"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="39">
         <v>36526</v>
       </c>
@@ -5630,7 +5631,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="39">
         <v>36557</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39"/>
       <c r="B72" s="20" t="s">
         <v>87</v>
@@ -5676,7 +5677,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="39">
         <v>36586</v>
       </c>
@@ -5700,7 +5701,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="39"/>
       <c r="B74" s="20" t="s">
         <v>46</v>
@@ -5722,7 +5723,7 @@
         <v>36608</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="39"/>
       <c r="B75" s="20" t="s">
         <v>89</v>
@@ -5742,7 +5743,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <v>36617</v>
       </c>
@@ -5766,7 +5767,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="39">
         <v>36647</v>
       </c>
@@ -5790,7 +5791,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="39">
         <v>36678</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="39"/>
       <c r="B79" s="20" t="s">
         <v>46</v>
@@ -5836,7 +5837,7 @@
         <v>36690</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
       <c r="B80" s="20" t="s">
         <v>54</v>
@@ -5856,7 +5857,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="39"/>
       <c r="B81" s="20" t="s">
         <v>94</v>
@@ -5876,7 +5877,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="47"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="39">
         <v>36708</v>
       </c>
@@ -5900,7 +5901,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="39">
         <v>36739</v>
       </c>
@@ -5924,7 +5925,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="39">
         <v>36770</v>
       </c>
@@ -5948,7 +5949,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="39"/>
       <c r="B85" s="20" t="s">
         <v>45</v>
@@ -5970,7 +5971,7 @@
         <v>36784</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="39"/>
       <c r="B86" s="20" t="s">
         <v>97</v>
@@ -5990,7 +5991,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="39">
         <v>36800</v>
       </c>
@@ -6016,7 +6017,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="39"/>
       <c r="B88" s="20" t="s">
         <v>46</v>
@@ -6038,7 +6039,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
         <v>45</v>
@@ -6060,7 +6061,7 @@
         <v>36829</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="39"/>
       <c r="B90" s="20" t="s">
         <v>100</v>
@@ -6080,7 +6081,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="39">
         <v>36831</v>
       </c>
@@ -6104,7 +6105,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="39">
         <v>36861</v>
       </c>
@@ -6130,7 +6131,7 @@
         <v>36868</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="39"/>
       <c r="B93" s="20" t="s">
         <v>102</v>
@@ -6150,7 +6151,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="47"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="46" t="s">
         <v>103</v>
       </c>
@@ -6168,7 +6169,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="47"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="39">
         <v>36892</v>
       </c>
@@ -6192,7 +6193,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="39">
         <v>36923</v>
       </c>
@@ -6216,7 +6217,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="39">
         <v>36951</v>
       </c>
@@ -6240,7 +6241,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="39">
         <v>36982</v>
       </c>
@@ -6264,7 +6265,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="39">
         <v>37012</v>
       </c>
@@ -6290,7 +6291,7 @@
         <v>37032</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="39"/>
       <c r="B100" s="20" t="s">
         <v>46</v>
@@ -6312,7 +6313,7 @@
         <v>37036</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="39"/>
       <c r="B101" s="20" t="s">
         <v>48</v>
@@ -6334,7 +6335,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="39">
         <v>37043</v>
       </c>
@@ -6358,7 +6359,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="39">
         <v>37073</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="39"/>
       <c r="B104" s="20" t="s">
         <v>110</v>
@@ -6404,7 +6405,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="39">
         <v>37104</v>
       </c>
@@ -6428,7 +6429,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="39">
         <v>37135</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="39"/>
       <c r="B107" s="20" t="s">
         <v>113</v>
@@ -6476,7 +6477,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="39">
         <v>37165</v>
       </c>
@@ -6500,7 +6501,7 @@
         <v>37169</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="39"/>
       <c r="B109" s="20" t="s">
         <v>46</v>
@@ -6522,7 +6523,7 @@
         <v>37176</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="39"/>
       <c r="B110" s="20" t="s">
         <v>54</v>
@@ -6542,7 +6543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="39"/>
       <c r="B111" s="20" t="s">
         <v>114</v>
@@ -6562,7 +6563,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="47"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="39">
         <v>37196</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>37208</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="39"/>
       <c r="B113" s="20" t="s">
         <v>54</v>
@@ -6608,7 +6609,7 @@
         <v>37224</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="39"/>
       <c r="B114" s="20" t="s">
         <v>115</v>
@@ -6628,7 +6629,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="47"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="39">
         <v>37226</v>
       </c>
@@ -6652,7 +6653,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="39"/>
       <c r="B116" s="20" t="s">
         <v>51</v>
@@ -6674,7 +6675,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="46" t="s">
         <v>103</v>
       </c>
@@ -6692,7 +6693,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="39">
         <v>37257</v>
       </c>
@@ -6716,7 +6717,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="39">
         <v>37288</v>
       </c>
@@ -6740,7 +6741,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="39"/>
       <c r="B120" s="20" t="s">
         <v>51</v>
@@ -6762,7 +6763,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="39">
         <v>37316</v>
       </c>
@@ -6786,7 +6787,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="39">
         <v>37347</v>
       </c>
@@ -6810,7 +6811,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="39">
         <v>37377</v>
       </c>
@@ -6836,7 +6837,7 @@
         <v>37371</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="39">
         <v>37408</v>
       </c>
@@ -6862,7 +6863,7 @@
         <v>37396</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="39"/>
       <c r="B125" s="20" t="s">
         <v>46</v>
@@ -6884,7 +6885,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="39"/>
       <c r="B126" s="20" t="s">
         <v>124</v>
@@ -6904,7 +6905,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="47"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="39">
         <v>37438</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>37463</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="39">
         <v>37469</v>
       </c>
@@ -6956,7 +6957,7 @@
         <v>37473</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="39"/>
       <c r="B129" s="20" t="s">
         <v>127</v>
@@ -6976,7 +6977,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="39">
         <v>37500</v>
       </c>
@@ -6996,7 +6997,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <v>37530</v>
       </c>
@@ -7022,7 +7023,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="39"/>
       <c r="B132" s="20" t="s">
         <v>46</v>
@@ -7044,7 +7045,7 @@
         <v>37536</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="39"/>
       <c r="B133" s="20" t="s">
         <v>48</v>
@@ -7066,7 +7067,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="39"/>
       <c r="B134" s="20" t="s">
         <v>46</v>
@@ -7088,7 +7089,7 @@
         <v>37546</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="39"/>
       <c r="B135" s="20" t="s">
         <v>45</v>
@@ -7110,7 +7111,7 @@
         <v>37559</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="39"/>
       <c r="B136" s="20" t="s">
         <v>126</v>
@@ -7130,7 +7131,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="39">
         <v>37561</v>
       </c>
@@ -7156,7 +7157,7 @@
         <v>37589</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="39"/>
       <c r="B138" s="20" t="s">
         <v>130</v>
@@ -7176,7 +7177,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="47"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="39">
         <v>37591</v>
       </c>
@@ -7200,7 +7201,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="39"/>
       <c r="B140" s="20" t="s">
         <v>48</v>
@@ -7222,7 +7223,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="39"/>
       <c r="B141" s="20" t="s">
         <v>133</v>
@@ -7242,7 +7243,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="46" t="s">
         <v>134</v>
       </c>
@@ -7260,7 +7261,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="39">
         <v>37622</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>37623</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="39"/>
       <c r="B144" s="20" t="s">
         <v>135</v>
@@ -7306,7 +7307,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="47"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="39">
         <v>37653</v>
       </c>
@@ -7332,7 +7333,7 @@
         <v>37662</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="39">
         <v>37681</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>37697</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="39"/>
       <c r="B147" s="20" t="s">
         <v>46</v>
@@ -7380,7 +7381,7 @@
         <v>37701</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="39"/>
       <c r="B148" s="20" t="s">
         <v>136</v>
@@ -7400,7 +7401,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="47"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="39">
         <v>37712</v>
       </c>
@@ -7424,7 +7425,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="39">
         <v>37742</v>
       </c>
@@ -7450,7 +7451,7 @@
         <v>37758</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="39"/>
       <c r="B151" s="20" t="s">
         <v>138</v>
@@ -7470,7 +7471,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="47"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="39">
         <v>37773</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>37781</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="39"/>
       <c r="B153" s="20" t="s">
         <v>139</v>
@@ -7516,7 +7517,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="47"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="39">
         <v>37803</v>
       </c>
@@ -7542,7 +7543,7 @@
         <v>37827</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="39"/>
       <c r="B155" s="20" t="s">
         <v>140</v>
@@ -7562,7 +7563,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="47"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="39">
         <v>37834</v>
       </c>
@@ -7586,7 +7587,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="39">
         <v>37865</v>
       </c>
@@ -7612,7 +7613,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="39"/>
       <c r="B158" s="20" t="s">
         <v>111</v>
@@ -7632,7 +7633,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="39"/>
       <c r="B159" s="20" t="s">
         <v>54</v>
@@ -7652,7 +7653,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="39"/>
       <c r="B160" s="20" t="s">
         <v>119</v>
@@ -7672,7 +7673,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="39">
         <v>37895</v>
       </c>
@@ -7698,7 +7699,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="39"/>
       <c r="B162" s="20" t="s">
         <v>97</v>
@@ -7720,7 +7721,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="39"/>
       <c r="B163" s="20" t="s">
         <v>145</v>
@@ -7740,7 +7741,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="39">
         <v>37926</v>
       </c>
@@ -7766,7 +7767,7 @@
         <v>37944</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="39"/>
       <c r="B165" s="20" t="s">
         <v>146</v>
@@ -7786,7 +7787,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="47"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="39">
         <v>37956</v>
       </c>
@@ -7812,7 +7813,7 @@
         <v>37973</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="39"/>
       <c r="B167" s="20" t="s">
         <v>46</v>
@@ -7834,7 +7835,7 @@
         <v>37978</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="39"/>
       <c r="B168" s="20" t="s">
         <v>46</v>
@@ -7856,7 +7857,7 @@
         <v>37984</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="39"/>
       <c r="B169" s="20" t="s">
         <v>147</v>
@@ -7876,7 +7877,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="47"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="46" t="s">
         <v>148</v>
       </c>
@@ -7894,7 +7895,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="47"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="39">
         <v>37987</v>
       </c>
@@ -7920,7 +7921,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="39"/>
       <c r="B172" s="20" t="s">
         <v>46</v>
@@ -7942,7 +7943,7 @@
         <v>38007</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="39"/>
       <c r="B173" s="20" t="s">
         <v>149</v>
@@ -7962,7 +7963,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="47"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="39">
         <v>38018</v>
       </c>
@@ -7986,7 +7987,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="39">
         <v>38047</v>
       </c>
@@ -8010,7 +8011,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="39"/>
       <c r="B176" s="20" t="s">
         <v>46</v>
@@ -8030,7 +8031,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="39">
         <v>38078</v>
       </c>
@@ -8056,7 +8057,7 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="39"/>
       <c r="B178" s="20" t="s">
         <v>46</v>
@@ -8078,7 +8079,7 @@
         <v>38104</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="39"/>
       <c r="B179" s="20" t="s">
         <v>153</v>
@@ -8098,7 +8099,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="47"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="39">
         <v>38108</v>
       </c>
@@ -8124,7 +8125,7 @@
         <v>38147</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="39"/>
       <c r="B181" s="20" t="s">
         <v>155</v>
@@ -8144,7 +8145,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="47"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="39">
         <v>38139</v>
       </c>
@@ -8168,7 +8169,7 @@
         <v>38141</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="39"/>
       <c r="B183" s="20" t="s">
         <v>166</v>
@@ -8188,7 +8189,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="39"/>
       <c r="B184" s="20" t="s">
         <v>154</v>
@@ -8208,7 +8209,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="39">
         <v>38169</v>
       </c>
@@ -8234,7 +8235,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="39"/>
       <c r="B186" s="20" t="s">
         <v>157</v>
@@ -8254,7 +8255,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="39">
         <v>38200</v>
       </c>
@@ -8278,7 +8279,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="39">
         <v>38231</v>
       </c>
@@ -8304,7 +8305,7 @@
         <v>38240</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="39"/>
       <c r="B189" s="20" t="s">
         <v>160</v>
@@ -8324,7 +8325,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="47"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="39">
         <v>38261</v>
       </c>
@@ -8350,7 +8351,7 @@
         <v>38264</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="39"/>
       <c r="B191" s="20" t="s">
         <v>48</v>
@@ -8372,7 +8373,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="39"/>
       <c r="B192" s="20" t="s">
         <v>45</v>
@@ -8394,7 +8395,7 @@
         <v>38289</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="39"/>
       <c r="B193" s="20" t="s">
         <v>46</v>
@@ -8416,7 +8417,7 @@
         <v>38279</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="39"/>
       <c r="B194" s="20" t="s">
         <v>162</v>
@@ -8436,7 +8437,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="47"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="39">
         <v>38292</v>
       </c>
@@ -8462,7 +8463,7 @@
         <v>38294</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="39"/>
       <c r="B196" s="20" t="s">
         <v>46</v>
@@ -8484,7 +8485,7 @@
         <v>38307</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="39"/>
       <c r="B197" s="20" t="s">
         <v>163</v>
@@ -8504,7 +8505,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="47"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="39">
         <v>38322</v>
       </c>
@@ -8528,7 +8529,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="46" t="s">
         <v>165</v>
       </c>
@@ -8546,7 +8547,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="39">
         <v>38353</v>
       </c>
@@ -8572,7 +8573,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="39"/>
       <c r="B201" s="20" t="s">
         <v>166</v>
@@ -8594,7 +8595,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="39"/>
       <c r="B202" s="20" t="s">
         <v>167</v>
@@ -8614,7 +8615,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="39">
         <v>38384</v>
       </c>
@@ -8638,7 +8639,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="39">
         <v>38412</v>
       </c>
@@ -8662,7 +8663,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="39">
         <v>38443</v>
       </c>
@@ -8686,7 +8687,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="39">
         <v>38473</v>
       </c>
@@ -8710,7 +8711,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="39"/>
       <c r="B207" s="20" t="s">
         <v>174</v>
@@ -8730,7 +8731,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="39">
         <v>38504</v>
       </c>
@@ -8754,7 +8755,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="39"/>
       <c r="B209" s="20" t="s">
         <v>54</v>
@@ -8774,7 +8775,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="39">
         <v>38534</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="39"/>
       <c r="B211" s="20" t="s">
         <v>166</v>
@@ -8822,7 +8823,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="39"/>
       <c r="B212" s="20" t="s">
         <v>135</v>
@@ -8842,7 +8843,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="39">
         <v>38565</v>
       </c>
@@ -8868,7 +8869,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="39"/>
       <c r="B214" s="20" t="s">
         <v>46</v>
@@ -8890,7 +8891,7 @@
         <v>38580</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="39"/>
       <c r="B215" s="20" t="s">
         <v>180</v>
@@ -8910,7 +8911,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="47"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="39">
         <v>38596</v>
       </c>
@@ -8934,7 +8935,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="39">
         <v>38626</v>
       </c>
@@ -8958,7 +8959,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="39">
         <v>38657</v>
       </c>
@@ -8982,7 +8983,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="39">
         <v>38687</v>
       </c>
@@ -9006,7 +9007,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="46" t="s">
         <v>185</v>
       </c>
@@ -9024,7 +9025,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="39">
         <v>38718</v>
       </c>
@@ -9048,7 +9049,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="39">
         <v>38749</v>
       </c>
@@ -9068,7 +9069,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="39">
         <v>38777</v>
       </c>
@@ -9088,7 +9089,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="39">
         <v>38808</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="39">
         <v>38838</v>
       </c>
@@ -9132,7 +9133,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="39">
         <v>38869</v>
       </c>
@@ -9152,7 +9153,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="39">
         <v>38899</v>
       </c>
@@ -9176,7 +9177,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="39">
         <v>38930</v>
       </c>
@@ -9200,7 +9201,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="39">
         <v>38961</v>
       </c>
@@ -9226,7 +9227,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="39"/>
       <c r="B230" s="20" t="s">
         <v>54</v>
@@ -9246,7 +9247,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="39"/>
       <c r="B231" s="20" t="s">
         <v>68</v>
@@ -9266,7 +9267,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="39">
         <v>38991</v>
       </c>
@@ -9292,7 +9293,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="39"/>
       <c r="B233" s="20" t="s">
         <v>131</v>
@@ -9314,7 +9315,7 @@
         <v>39017</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="39">
         <v>39022</v>
       </c>
@@ -9338,7 +9339,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="39">
         <v>39052</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>39057</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="39"/>
       <c r="B236" s="20" t="s">
         <v>191</v>
@@ -9384,7 +9385,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="47"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="46" t="s">
         <v>192</v>
       </c>
@@ -9402,7 +9403,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="47"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="39">
         <v>39083</v>
       </c>
@@ -9428,7 +9429,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="39"/>
       <c r="B239" s="20" t="s">
         <v>194</v>
@@ -9448,7 +9449,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="39">
         <v>39114</v>
       </c>
@@ -9472,7 +9473,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="39">
         <v>39142</v>
       </c>
@@ -9496,7 +9497,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="39">
         <v>39173</v>
       </c>
@@ -9520,7 +9521,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="39">
         <v>39203</v>
       </c>
@@ -9544,7 +9545,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="39"/>
       <c r="B244" s="20" t="s">
         <v>199</v>
@@ -9562,7 +9563,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="39">
         <v>39234</v>
       </c>
@@ -9586,7 +9587,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="39">
         <v>39264</v>
       </c>
@@ -9610,7 +9611,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="39">
         <v>39295</v>
       </c>
@@ -9634,7 +9635,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="39">
         <v>39326</v>
       </c>
@@ -9654,7 +9655,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="39">
         <v>39356</v>
       </c>
@@ -9678,7 +9679,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="39">
         <v>39387</v>
       </c>
@@ -9698,7 +9699,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="39">
         <v>39417</v>
       </c>
@@ -9722,7 +9723,7 @@
       <c r="J251" s="12"/>
       <c r="K251" s="15"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="46" t="s">
         <v>204</v>
       </c>
@@ -9740,7 +9741,7 @@
       <c r="J252" s="12"/>
       <c r="K252" s="15"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="39">
         <v>39448</v>
       </c>
@@ -9760,7 +9761,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="39">
         <v>39479</v>
       </c>
@@ -9780,7 +9781,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="39">
         <v>39508</v>
       </c>
@@ -9804,7 +9805,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="39">
         <v>39539</v>
       </c>
@@ -9824,7 +9825,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="39">
         <v>39569</v>
       </c>
@@ -9848,7 +9849,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="39">
         <v>39600</v>
       </c>
@@ -9868,7 +9869,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="39">
         <v>39630</v>
       </c>
@@ -9894,7 +9895,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="39">
         <v>39661</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="39">
         <v>39692</v>
       </c>
@@ -9940,7 +9941,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="39">
         <v>39722</v>
       </c>
@@ -9964,7 +9965,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="39">
         <v>39753</v>
       </c>
@@ -9984,7 +9985,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="39">
         <v>39783</v>
       </c>
@@ -10008,7 +10009,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="46" t="s">
         <v>211</v>
       </c>
@@ -10026,7 +10027,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="39">
         <v>39814</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="39"/>
       <c r="B267" s="20" t="s">
         <v>213</v>
@@ -10070,7 +10071,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="39">
         <v>39845</v>
       </c>
@@ -10094,7 +10095,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="39"/>
       <c r="B269" s="20" t="s">
         <v>54</v>
@@ -10114,7 +10115,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="39">
         <v>39873</v>
       </c>
@@ -10140,7 +10141,7 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="39"/>
       <c r="B271" s="20" t="s">
         <v>215</v>
@@ -10160,7 +10161,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="47"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="39">
         <v>39904</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>39932</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="39"/>
       <c r="B273" s="20" t="s">
         <v>216</v>
@@ -10206,7 +10207,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="47"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="39">
         <v>39934</v>
       </c>
@@ -10230,7 +10231,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="39"/>
       <c r="B275" s="20" t="s">
         <v>218</v>
@@ -10250,7 +10251,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="39">
         <v>39965</v>
       </c>
@@ -10274,7 +10275,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="39">
         <v>39995</v>
       </c>
@@ -10298,7 +10299,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="39">
         <v>40026</v>
       </c>
@@ -10322,7 +10323,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="39">
         <v>40057</v>
       </c>
@@ -10348,7 +10349,7 @@
         <v>40085</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="39"/>
       <c r="B280" s="20" t="s">
         <v>61</v>
@@ -10370,7 +10371,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="39"/>
       <c r="B281" s="20" t="s">
         <v>131</v>
@@ -10392,7 +10393,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="39"/>
       <c r="B282" s="20" t="s">
         <v>222</v>
@@ -10412,7 +10413,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="47"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="39">
         <v>40087</v>
       </c>
@@ -10438,7 +10439,7 @@
         <v>40106</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="39"/>
       <c r="B284" s="20" t="s">
         <v>131</v>
@@ -10460,7 +10461,7 @@
         <v>40123</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="39"/>
       <c r="B285" s="20" t="s">
         <v>223</v>
@@ -10480,7 +10481,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="47"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="39">
         <v>40118</v>
       </c>
@@ -10504,7 +10505,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="39">
         <v>40148</v>
       </c>
@@ -10528,7 +10529,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="46" t="s">
         <v>224</v>
       </c>
@@ -10546,7 +10547,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="39">
         <v>40179</v>
       </c>
@@ -10570,7 +10571,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="39">
         <v>40210</v>
       </c>
@@ -10590,7 +10591,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="39">
         <v>40238</v>
       </c>
@@ -10610,7 +10611,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="39">
         <v>40269</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="39"/>
       <c r="B293" s="20" t="s">
         <v>130</v>
@@ -10654,7 +10655,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="39">
         <v>40299</v>
       </c>
@@ -10678,7 +10679,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="39">
         <v>40330</v>
       </c>
@@ -10698,7 +10699,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="39">
         <v>40360</v>
       </c>
@@ -10724,7 +10725,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="39"/>
       <c r="B297" s="20" t="s">
         <v>229</v>
@@ -10746,7 +10747,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="39"/>
       <c r="B298" s="20" t="s">
         <v>231</v>
@@ -10766,7 +10767,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="39">
         <v>40391</v>
       </c>
@@ -10792,7 +10793,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="39"/>
       <c r="B300" s="20" t="s">
         <v>233</v>
@@ -10812,7 +10813,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="39">
         <v>40422</v>
       </c>
@@ -10836,7 +10837,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="39">
         <v>40452</v>
       </c>
@@ -10856,7 +10857,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="39">
         <v>40483</v>
       </c>
@@ -10876,7 +10877,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="39">
         <v>40513</v>
       </c>
@@ -10900,7 +10901,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="46" t="s">
         <v>235</v>
       </c>
@@ -10918,7 +10919,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="39">
         <v>40544</v>
       </c>
@@ -10942,7 +10943,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="39"/>
       <c r="B307" s="20" t="s">
         <v>46</v>
@@ -10964,7 +10965,7 @@
         <v>40584</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="39">
         <v>40575</v>
       </c>
@@ -10988,7 +10989,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="39">
         <v>40603</v>
       </c>
@@ -11014,7 +11015,7 @@
         <v>40616</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="39"/>
       <c r="B310" s="20" t="s">
         <v>141</v>
@@ -11034,7 +11035,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="47"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="39">
         <v>40634</v>
       </c>
@@ -11058,7 +11059,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="39"/>
       <c r="B312" s="20" t="s">
         <v>54</v>
@@ -11078,7 +11079,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="39"/>
       <c r="B313" s="20" t="s">
         <v>140</v>
@@ -11098,7 +11099,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="39">
         <v>40664</v>
       </c>
@@ -11122,7 +11123,7 @@
         <v>40689</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="39"/>
       <c r="B315" s="20" t="s">
         <v>239</v>
@@ -11140,7 +11141,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="47"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="39">
         <v>40695</v>
       </c>
@@ -11166,7 +11167,7 @@
         <v>40710</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="39"/>
       <c r="B317" s="20" t="s">
         <v>240</v>
@@ -11186,7 +11187,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="47"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="39">
         <v>40725</v>
       </c>
@@ -11210,7 +11211,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="39"/>
       <c r="B319" s="20" t="s">
         <v>241</v>
@@ -11230,7 +11231,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="39">
         <v>40756</v>
       </c>
@@ -11256,7 +11257,7 @@
         <v>40758</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="39"/>
       <c r="B321" s="20" t="s">
         <v>131</v>
@@ -11278,7 +11279,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="39"/>
       <c r="B322" s="20" t="s">
         <v>242</v>
@@ -11298,7 +11299,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="47"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="39">
         <v>40787</v>
       </c>
@@ -11324,7 +11325,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="39"/>
       <c r="B324" s="20" t="s">
         <v>46</v>
@@ -11346,7 +11347,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="39"/>
       <c r="B325" s="20" t="s">
         <v>245</v>
@@ -11366,7 +11367,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="47"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="39">
         <v>40817</v>
       </c>
@@ -11392,7 +11393,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="39"/>
       <c r="B327" s="20" t="s">
         <v>54</v>
@@ -11412,7 +11413,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="39"/>
       <c r="B328" s="20" t="s">
         <v>46</v>
@@ -11434,7 +11435,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="39"/>
       <c r="B329" s="20" t="s">
         <v>247</v>
@@ -11454,7 +11455,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="47"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="39">
         <v>40848</v>
       </c>
@@ -11480,7 +11481,7 @@
         <v>40857</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="39"/>
       <c r="B331" s="20" t="s">
         <v>46</v>
@@ -11502,7 +11503,7 @@
         <v>40863</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="39"/>
       <c r="B332" s="20" t="s">
         <v>248</v>
@@ -11522,7 +11523,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="47"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="39">
         <v>40878</v>
       </c>
@@ -11548,7 +11549,7 @@
         <v>40879</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="39"/>
       <c r="B334" s="20" t="s">
         <v>243</v>
@@ -11570,7 +11571,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="39"/>
       <c r="B335" s="20" t="s">
         <v>166</v>
@@ -11592,7 +11593,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="39"/>
       <c r="B336" s="20" t="s">
         <v>243</v>
@@ -11612,7 +11613,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="47"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="39"/>
       <c r="B337" s="20" t="s">
         <v>194</v>
@@ -11632,7 +11633,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="47"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="46" t="s">
         <v>251</v>
       </c>
@@ -11650,7 +11651,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="47"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="39">
         <v>40909</v>
       </c>
@@ -11674,7 +11675,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="39">
         <v>40940</v>
       </c>
@@ -11700,7 +11701,7 @@
         <v>40949</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="39"/>
       <c r="B341" s="20" t="s">
         <v>54</v>
@@ -11720,7 +11721,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="39"/>
       <c r="B342" s="20" t="s">
         <v>254</v>
@@ -11740,7 +11741,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="47"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="39">
         <v>40969</v>
       </c>
@@ -11766,7 +11767,7 @@
         <v>40983</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="39"/>
       <c r="B344" s="20" t="s">
         <v>255</v>
@@ -11786,7 +11787,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="47"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="39">
         <v>41000</v>
       </c>
@@ -11812,7 +11813,7 @@
         <v>41009</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="39"/>
       <c r="B346" s="20" t="s">
         <v>54</v>
@@ -11832,7 +11833,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="39"/>
       <c r="B347" s="20" t="s">
         <v>46</v>
@@ -11854,7 +11855,7 @@
         <v>41017</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="39"/>
       <c r="B348" s="20" t="s">
         <v>257</v>
@@ -11874,7 +11875,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="47"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="39">
         <v>41030</v>
       </c>
@@ -11900,7 +11901,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="39"/>
       <c r="B350" s="20" t="s">
         <v>259</v>
@@ -11920,7 +11921,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="39">
         <v>41061</v>
       </c>
@@ -11944,7 +11945,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="39">
         <v>41091</v>
       </c>
@@ -11968,7 +11969,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="39">
         <v>41122</v>
       </c>
@@ -11992,7 +11993,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="39">
         <v>41153</v>
       </c>
@@ -12012,7 +12013,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="39">
         <v>41183</v>
       </c>
@@ -12032,7 +12033,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="39">
         <v>41214</v>
       </c>
@@ -12052,7 +12053,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="39">
         <v>41244</v>
       </c>
@@ -12078,7 +12079,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="46" t="s">
         <v>263</v>
       </c>
@@ -12096,7 +12097,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="39">
         <v>41275</v>
       </c>
@@ -12120,7 +12121,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="39">
         <v>41306</v>
       </c>
@@ -12144,7 +12145,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="39">
         <v>41334</v>
       </c>
@@ -12168,7 +12169,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="39">
         <v>41365</v>
       </c>
@@ -12192,7 +12193,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="39">
         <v>41395</v>
       </c>
@@ -12216,7 +12217,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="39">
         <v>41426</v>
       </c>
@@ -12240,7 +12241,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="39">
         <v>41456</v>
       </c>
@@ -12264,7 +12265,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="39">
         <v>41487</v>
       </c>
@@ -12288,7 +12289,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="39">
         <v>41518</v>
       </c>
@@ -12312,7 +12313,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="39">
         <v>41548</v>
       </c>
@@ -12336,7 +12337,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="39"/>
       <c r="B369" s="20" t="s">
         <v>272</v>
@@ -12356,7 +12357,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="39">
         <v>41579</v>
       </c>
@@ -12380,7 +12381,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="39">
         <v>41609</v>
       </c>
@@ -12404,7 +12405,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="46" t="s">
         <v>274</v>
       </c>
@@ -12422,7 +12423,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="39">
         <v>41640</v>
       </c>
@@ -12446,7 +12447,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="39">
         <v>41671</v>
       </c>
@@ -12470,7 +12471,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="39"/>
       <c r="B375" s="20" t="s">
         <v>51</v>
@@ -12492,7 +12493,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="39">
         <v>41699</v>
       </c>
@@ -12516,7 +12517,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="39"/>
       <c r="B377" s="20" t="s">
         <v>46</v>
@@ -12538,7 +12539,7 @@
         <v>41725</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="39">
         <v>41730</v>
       </c>
@@ -12562,7 +12563,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="39">
         <v>41760</v>
       </c>
@@ -12586,7 +12587,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="39">
         <v>41791</v>
       </c>
@@ -12610,7 +12611,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="39">
         <v>41821</v>
       </c>
@@ -12634,7 +12635,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="39">
         <v>41852</v>
       </c>
@@ -12658,7 +12659,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="39">
         <v>41883</v>
       </c>
@@ -12682,7 +12683,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="39">
         <v>41913</v>
       </c>
@@ -12706,7 +12707,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="39"/>
       <c r="B385" s="20" t="s">
         <v>166</v>
@@ -12728,7 +12729,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="39">
         <v>41944</v>
       </c>
@@ -12754,7 +12755,7 @@
         <v>41946</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="39"/>
       <c r="B387" s="20" t="s">
         <v>51</v>
@@ -12776,7 +12777,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="39"/>
       <c r="B388" s="20" t="s">
         <v>285</v>
@@ -12798,7 +12799,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="39"/>
       <c r="B389" s="20" t="s">
         <v>287</v>
@@ -12818,7 +12819,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="47"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="39">
         <v>41974</v>
       </c>
@@ -12844,7 +12845,7 @@
         <v>41982</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="39"/>
       <c r="B391" s="20" t="s">
         <v>289</v>
@@ -12864,7 +12865,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="47"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="39"/>
       <c r="B392" s="20" t="s">
         <v>243</v>
@@ -12884,7 +12885,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="47"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="46" t="s">
         <v>288</v>
       </c>
@@ -12902,7 +12903,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="39">
         <v>42005</v>
       </c>
@@ -12926,7 +12927,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="39"/>
       <c r="B395" s="20" t="s">
         <v>291</v>
@@ -12946,7 +12947,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="39">
         <v>42036</v>
       </c>
@@ -12972,7 +12973,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="39"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -12994,7 +12995,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="39"/>
       <c r="B398" s="20" t="s">
         <v>48</v>
@@ -13016,7 +13017,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="39"/>
       <c r="B399" s="20" t="s">
         <v>294</v>
@@ -13036,7 +13037,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="39">
         <v>42064</v>
       </c>
@@ -13062,7 +13063,7 @@
         <v>42087</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="39"/>
       <c r="B401" s="20" t="s">
         <v>295</v>
@@ -13082,7 +13083,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="47"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="39">
         <v>42095</v>
       </c>
@@ -13106,7 +13107,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="39"/>
       <c r="B403" s="20" t="s">
         <v>297</v>
@@ -13126,7 +13127,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="39">
         <v>42125</v>
       </c>
@@ -13152,7 +13153,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="39"/>
       <c r="B405" s="20" t="s">
         <v>298</v>
@@ -13172,7 +13173,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="47"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="39">
         <v>42156</v>
       </c>
@@ -13198,7 +13199,7 @@
         <v>42135</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="39"/>
       <c r="B407" s="20" t="s">
         <v>46</v>
@@ -13216,7 +13217,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="47"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="39"/>
       <c r="B408" s="20" t="s">
         <v>299</v>
@@ -13236,7 +13237,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="47"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="39">
         <v>42186</v>
       </c>
@@ -13260,7 +13261,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="39">
         <v>42217</v>
       </c>
@@ -13286,7 +13287,7 @@
         <v>42223</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="39"/>
       <c r="B411" s="20" t="s">
         <v>46</v>
@@ -13308,7 +13309,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="39"/>
       <c r="B412" s="20" t="s">
         <v>300</v>
@@ -13328,7 +13329,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="47"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="39">
         <v>42248</v>
       </c>
@@ -13354,7 +13355,7 @@
         <v>42262</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="39"/>
       <c r="B414" s="20" t="s">
         <v>191</v>
@@ -13376,7 +13377,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="39"/>
       <c r="B415" s="20" t="s">
         <v>127</v>
@@ -13396,7 +13397,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="39"/>
       <c r="B416" s="20" t="s">
         <v>46</v>
@@ -13418,7 +13419,7 @@
         <v>42271</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="39"/>
       <c r="B417" s="20" t="s">
         <v>48</v>
@@ -13440,7 +13441,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="39"/>
       <c r="B418" s="20" t="s">
         <v>301</v>
@@ -13460,7 +13461,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="39">
         <v>42278</v>
       </c>
@@ -13486,7 +13487,7 @@
         <v>42307</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="39"/>
       <c r="B420" s="20" t="s">
         <v>46</v>
@@ -13508,7 +13509,7 @@
         <v>42293</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="39"/>
       <c r="B421" s="20" t="s">
         <v>46</v>
@@ -13530,7 +13531,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="39"/>
       <c r="B422" s="20" t="s">
         <v>304</v>
@@ -13550,7 +13551,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="47"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="39">
         <v>42309</v>
       </c>
@@ -13576,7 +13577,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="39"/>
       <c r="B424" s="20" t="s">
         <v>48</v>
@@ -13598,7 +13599,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="39"/>
       <c r="B425" s="20" t="s">
         <v>46</v>
@@ -13620,7 +13621,7 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="39"/>
       <c r="B426" s="20" t="s">
         <v>46</v>
@@ -13642,7 +13643,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="39"/>
       <c r="B427" s="20" t="s">
         <v>46</v>
@@ -13664,7 +13665,7 @@
         <v>42347</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="39"/>
       <c r="B428" s="20" t="s">
         <v>307</v>
@@ -13684,7 +13685,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="39">
         <v>42339</v>
       </c>
@@ -13710,7 +13711,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="39"/>
       <c r="B430" s="20" t="s">
         <v>308</v>
@@ -13730,7 +13731,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="46" t="s">
         <v>309</v>
       </c>
@@ -13748,7 +13749,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="39">
         <v>42370</v>
       </c>
@@ -13774,7 +13775,7 @@
         <v>42395</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="39"/>
       <c r="B433" s="20" t="s">
         <v>310</v>
@@ -13794,7 +13795,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="47"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="39">
         <v>42401</v>
       </c>
@@ -13820,7 +13821,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="39"/>
       <c r="B435" s="20" t="s">
         <v>46</v>
@@ -13842,7 +13843,7 @@
         <v>42412</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="39"/>
       <c r="B436" s="20" t="s">
         <v>46</v>
@@ -13864,7 +13865,7 @@
         <v>42423</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="39"/>
       <c r="B437" s="20" t="s">
         <v>312</v>
@@ -13884,7 +13885,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="39">
         <v>42430</v>
       </c>
@@ -13910,7 +13911,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="39"/>
       <c r="B439" s="20" t="s">
         <v>45</v>
@@ -13932,7 +13933,7 @@
         <v>42446</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="39"/>
       <c r="B440" s="20" t="s">
         <v>48</v>
@@ -13954,7 +13955,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="39"/>
       <c r="B441" s="20" t="s">
         <v>315</v>
@@ -13974,7 +13975,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="39">
         <v>42461</v>
       </c>
@@ -13998,7 +13999,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="39">
         <v>42491</v>
       </c>
@@ -14022,7 +14023,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="39">
         <v>42522</v>
       </c>
@@ -14048,7 +14049,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="39"/>
       <c r="B445" s="20" t="s">
         <v>48</v>
@@ -14070,7 +14071,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="39"/>
       <c r="B446" s="20" t="s">
         <v>46</v>
@@ -14092,7 +14093,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="39"/>
       <c r="B447" s="20" t="s">
         <v>46</v>
@@ -14114,7 +14115,7 @@
         <v>42535</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="39"/>
       <c r="B448" s="20" t="s">
         <v>166</v>
@@ -14136,7 +14137,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="39"/>
       <c r="B449" s="20" t="s">
         <v>320</v>
@@ -14156,7 +14157,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="39">
         <v>42552</v>
       </c>
@@ -14180,7 +14181,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="39">
         <v>42583</v>
       </c>
@@ -14204,7 +14205,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="39"/>
       <c r="B452" s="20" t="s">
         <v>48</v>
@@ -14226,7 +14227,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="39"/>
       <c r="B453" s="20" t="s">
         <v>48</v>
@@ -14248,7 +14249,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="39"/>
       <c r="B454" s="20" t="s">
         <v>46</v>
@@ -14270,7 +14271,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="39"/>
       <c r="B455" s="20" t="s">
         <v>326</v>
@@ -14290,7 +14291,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="39">
         <v>42614</v>
       </c>
@@ -14316,7 +14317,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="39"/>
       <c r="B457" s="20" t="s">
         <v>166</v>
@@ -14338,7 +14339,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="39"/>
       <c r="B458" s="20" t="s">
         <v>46</v>
@@ -14360,7 +14361,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="39"/>
       <c r="B459" s="20" t="s">
         <v>328</v>
@@ -14380,7 +14381,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="47"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="39">
         <v>42644</v>
       </c>
@@ -14404,7 +14405,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="39"/>
       <c r="B461" s="20" t="s">
         <v>54</v>
@@ -14424,7 +14425,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="39"/>
       <c r="B462" s="20" t="s">
         <v>330</v>
@@ -14444,7 +14445,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="39">
         <v>42675</v>
       </c>
@@ -14470,7 +14471,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="39"/>
       <c r="B464" s="20" t="s">
         <v>48</v>
@@ -14492,7 +14493,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="39"/>
       <c r="B465" s="20" t="s">
         <v>332</v>
@@ -14512,7 +14513,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="47"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="39">
         <v>42705</v>
       </c>
@@ -14538,7 +14539,7 @@
         <v>42716</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="39"/>
       <c r="B467" s="20" t="s">
         <v>333</v>
@@ -14558,7 +14559,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="47"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="46" t="s">
         <v>334</v>
       </c>
@@ -14576,7 +14577,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="47"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="39">
         <v>42736</v>
       </c>
@@ -14600,7 +14601,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="39">
         <v>42767</v>
       </c>
@@ -14626,7 +14627,7 @@
         <v>42410</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="39"/>
       <c r="B471" s="20" t="s">
         <v>45</v>
@@ -14648,7 +14649,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="39"/>
       <c r="B472" s="20" t="s">
         <v>336</v>
@@ -14668,7 +14669,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="47"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="39">
         <v>42795</v>
       </c>
@@ -14694,7 +14695,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="39"/>
       <c r="B474" s="20" t="s">
         <v>51</v>
@@ -14716,7 +14717,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="39"/>
       <c r="B475" s="20" t="s">
         <v>339</v>
@@ -14736,7 +14737,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="39">
         <v>42826</v>
       </c>
@@ -14762,7 +14763,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="39"/>
       <c r="B477" s="20" t="s">
         <v>340</v>
@@ -14782,7 +14783,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="39">
         <v>42856</v>
       </c>
@@ -14808,7 +14809,7 @@
         <v>42499</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="39">
         <v>42887</v>
       </c>
@@ -14828,7 +14829,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="39">
         <v>42917</v>
       </c>
@@ -14854,7 +14855,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="39"/>
       <c r="B481" s="20" t="s">
         <v>343</v>
@@ -14874,7 +14875,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="39">
         <v>42948</v>
       </c>
@@ -14898,7 +14899,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="39">
         <v>42979</v>
       </c>
@@ -14922,7 +14923,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="39">
         <v>43009</v>
       </c>
@@ -14948,7 +14949,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="39"/>
       <c r="B485" s="20" t="s">
         <v>54</v>
@@ -14968,7 +14969,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="39"/>
       <c r="B486" s="20" t="s">
         <v>346</v>
@@ -14990,7 +14991,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="39"/>
       <c r="B487" s="20" t="s">
         <v>54</v>
@@ -15010,7 +15011,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="39"/>
       <c r="B488" s="20" t="s">
         <v>349</v>
@@ -15030,7 +15031,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="39">
         <v>43040</v>
       </c>
@@ -15056,7 +15057,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="39">
         <v>43070</v>
       </c>
@@ -15082,7 +15083,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="46" t="s">
         <v>352</v>
       </c>
@@ -15100,7 +15101,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="39">
         <v>43101</v>
       </c>
@@ -15120,7 +15121,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="39">
         <v>43132</v>
       </c>
@@ -15146,7 +15147,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="39"/>
       <c r="B494" s="20" t="s">
         <v>54</v>
@@ -15166,7 +15167,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="39">
         <v>43160</v>
       </c>
@@ -15186,7 +15187,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="39">
         <v>43191</v>
       </c>
@@ -15212,7 +15213,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="39"/>
       <c r="B497" s="20" t="s">
         <v>46</v>
@@ -15234,7 +15235,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="39"/>
       <c r="B498" s="20" t="s">
         <v>46</v>
@@ -15256,7 +15257,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="39"/>
       <c r="B499" s="20" t="s">
         <v>166</v>
@@ -15278,7 +15279,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="39"/>
       <c r="B500" s="20" t="s">
         <v>45</v>
@@ -15300,7 +15301,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="39">
         <v>43221</v>
       </c>
@@ -15326,7 +15327,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="39"/>
       <c r="B502" s="20" t="s">
         <v>48</v>
@@ -15348,7 +15349,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="39"/>
       <c r="B503" s="20" t="s">
         <v>358</v>
@@ -15368,7 +15369,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="47"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="39">
         <v>43252</v>
       </c>
@@ -15394,7 +15395,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="39"/>
       <c r="B505" s="20" t="s">
         <v>360</v>
@@ -15414,7 +15415,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="39">
         <v>43282</v>
       </c>
@@ -15440,7 +15441,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="39"/>
       <c r="B507" s="20" t="s">
         <v>46</v>
@@ -15462,7 +15463,7 @@
         <v>43306</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="39"/>
       <c r="B508" s="20" t="s">
         <v>87</v>
@@ -15482,7 +15483,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="47"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="39">
         <v>43313</v>
       </c>
@@ -15508,7 +15509,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="39"/>
       <c r="B510" s="20" t="s">
         <v>48</v>
@@ -15530,7 +15531,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="39"/>
       <c r="B511" s="20" t="s">
         <v>166</v>
@@ -15552,7 +15553,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="39"/>
       <c r="B512" s="20" t="s">
         <v>166</v>
@@ -15574,7 +15575,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="39"/>
       <c r="B513" s="20" t="s">
         <v>48</v>
@@ -15596,7 +15597,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="39"/>
       <c r="B514" s="20" t="s">
         <v>47</v>
@@ -15616,7 +15617,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="47"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="39">
         <v>43344</v>
       </c>
@@ -15642,7 +15643,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="39"/>
       <c r="B516" s="20" t="s">
         <v>166</v>
@@ -15664,7 +15665,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="39"/>
       <c r="B517" s="20" t="s">
         <v>367</v>
@@ -15686,7 +15687,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="39">
         <v>43374</v>
       </c>
@@ -15710,7 +15711,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="39"/>
       <c r="B519" s="20" t="s">
         <v>368</v>
@@ -15730,7 +15731,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="39">
         <v>43405</v>
       </c>
@@ -15754,7 +15755,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="39"/>
       <c r="B521" s="20" t="s">
         <v>46</v>
@@ -15776,7 +15777,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="39"/>
       <c r="B522" s="20" t="s">
         <v>46</v>
@@ -15798,7 +15799,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="39"/>
       <c r="B523" s="20" t="s">
         <v>369</v>
@@ -15818,7 +15819,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="47"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="39">
         <v>43435</v>
       </c>
@@ -15844,7 +15845,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="39"/>
       <c r="B525" s="20" t="s">
         <v>46</v>
@@ -15866,7 +15867,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="39"/>
       <c r="B526" s="20" t="s">
         <v>191</v>
@@ -15886,7 +15887,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="39"/>
       <c r="B527" s="20" t="s">
         <v>372</v>
@@ -15906,7 +15907,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="46" t="s">
         <v>371</v>
       </c>
@@ -15924,7 +15925,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="39">
         <v>43466</v>
       </c>
@@ -15950,7 +15951,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="39"/>
       <c r="B530" s="20" t="s">
         <v>375</v>
@@ -15970,7 +15971,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="39">
         <v>43497</v>
       </c>
@@ -15996,7 +15997,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="39"/>
       <c r="B532" s="20" t="s">
         <v>48</v>
@@ -16018,7 +16019,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="39"/>
       <c r="B533" s="20" t="s">
         <v>127</v>
@@ -16038,7 +16039,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="39"/>
       <c r="B534" s="20" t="s">
         <v>247</v>
@@ -16058,7 +16059,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="39">
         <v>43525</v>
       </c>
@@ -16084,7 +16085,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="39"/>
       <c r="B536" s="20" t="s">
         <v>221</v>
@@ -16104,7 +16105,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="39">
         <v>43556</v>
       </c>
@@ -16128,7 +16129,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="39"/>
       <c r="B538" s="20" t="s">
         <v>46</v>
@@ -16150,7 +16151,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="39"/>
       <c r="B539" s="20" t="s">
         <v>381</v>
@@ -16170,7 +16171,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="39">
         <v>43586</v>
       </c>
@@ -16196,7 +16197,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="39"/>
       <c r="B541" s="20" t="s">
         <v>46</v>
@@ -16218,7 +16219,7 @@
         <v>43615</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="39"/>
       <c r="B542" s="20" t="s">
         <v>344</v>
@@ -16238,7 +16239,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="47"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="39">
         <v>43617</v>
       </c>
@@ -16264,7 +16265,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="39"/>
       <c r="B544" s="20" t="s">
         <v>46</v>
@@ -16286,7 +16287,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="39"/>
       <c r="B545" s="20" t="s">
         <v>46</v>
@@ -16308,7 +16309,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="39"/>
       <c r="B546" s="20" t="s">
         <v>222</v>
@@ -16328,7 +16329,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="47"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="39">
         <v>43647</v>
       </c>
@@ -16354,7 +16355,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="39"/>
       <c r="B548" s="20" t="s">
         <v>77</v>
@@ -16374,7 +16375,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="39">
         <v>43678</v>
       </c>
@@ -16398,7 +16399,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="39">
         <v>43709</v>
       </c>
@@ -16424,7 +16425,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="39"/>
       <c r="B551" s="20" t="s">
         <v>46</v>
@@ -16446,7 +16447,7 @@
         <v>43734</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="39">
         <v>43739</v>
       </c>
@@ -16472,7 +16473,7 @@
         <v>43740</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="39"/>
       <c r="B553" s="20" t="s">
         <v>61</v>
@@ -16494,7 +16495,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="39"/>
       <c r="B554" s="20" t="s">
         <v>46</v>
@@ -16516,7 +16517,7 @@
         <v>43747</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="39"/>
       <c r="B555" s="20" t="s">
         <v>45</v>
@@ -16538,7 +16539,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="39">
         <v>43770</v>
       </c>
@@ -16564,7 +16565,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="39"/>
       <c r="B557" s="20" t="s">
         <v>46</v>
@@ -16584,7 +16585,7 @@
         <v>43796</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="39"/>
       <c r="B558" s="20" t="s">
         <v>48</v>
@@ -16606,7 +16607,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="39">
         <v>43800</v>
       </c>
@@ -16626,7 +16627,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="46" t="s">
         <v>387</v>
       </c>
@@ -16644,7 +16645,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="39">
         <v>43831</v>
       </c>
@@ -16670,7 +16671,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="39"/>
       <c r="B562" s="20" t="s">
         <v>389</v>
@@ -16690,7 +16691,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="39">
         <v>43862</v>
       </c>
@@ -16710,7 +16711,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="39">
         <v>43891</v>
       </c>
@@ -16730,7 +16731,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="39">
         <v>43922</v>
       </c>
@@ -16750,7 +16751,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="39">
         <v>43952</v>
       </c>
@@ -16770,7 +16771,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="39">
         <v>43983</v>
       </c>
@@ -16790,7 +16791,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="39">
         <v>44013</v>
       </c>
@@ -16814,7 +16815,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="39">
         <v>44044</v>
       </c>
@@ -16834,7 +16835,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="39">
         <v>44075</v>
       </c>
@@ -16860,7 +16861,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="39"/>
       <c r="B571" s="20" t="s">
         <v>46</v>
@@ -16880,7 +16881,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="39"/>
       <c r="B572" s="20" t="s">
         <v>46</v>
@@ -16900,7 +16901,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="39">
         <v>44105</v>
       </c>
@@ -16926,7 +16927,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="39"/>
       <c r="B574" s="20" t="s">
         <v>111</v>
@@ -16948,7 +16949,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="39"/>
       <c r="B575" s="20" t="s">
         <v>54</v>
@@ -16968,7 +16969,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="39"/>
       <c r="B576" s="20" t="s">
         <v>46</v>
@@ -16990,7 +16991,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="39"/>
       <c r="B577" s="20" t="s">
         <v>48</v>
@@ -17012,7 +17013,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="39"/>
       <c r="B578" s="20" t="s">
         <v>46</v>
@@ -17034,7 +17035,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="39">
         <v>44136</v>
       </c>
@@ -17054,7 +17055,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="39">
         <v>44166</v>
       </c>
@@ -17078,7 +17079,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="46" t="s">
         <v>395</v>
       </c>
@@ -17096,7 +17097,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="39">
         <v>44197</v>
       </c>
@@ -17116,7 +17117,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="39">
         <v>44228</v>
       </c>
@@ -17142,7 +17143,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="39">
         <v>44256</v>
       </c>
@@ -17162,7 +17163,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="39">
         <v>44287</v>
       </c>
@@ -17182,7 +17183,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="39">
         <v>44317</v>
       </c>
@@ -17202,7 +17203,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="39">
         <v>44348</v>
       </c>
@@ -17222,7 +17223,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="39">
         <v>44378</v>
       </c>
@@ -17246,7 +17247,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="39">
         <v>44409</v>
       </c>
@@ -17266,7 +17267,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="39">
         <v>44440</v>
       </c>
@@ -17286,7 +17287,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="39">
         <v>44470</v>
       </c>
@@ -17310,7 +17311,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="39"/>
       <c r="B592" s="20" t="s">
         <v>45</v>
@@ -17332,7 +17333,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="39">
         <v>44501</v>
       </c>
@@ -17358,7 +17359,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="39">
         <v>44531</v>
       </c>
@@ -17384,7 +17385,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="46" t="s">
         <v>400</v>
       </c>
@@ -17402,7 +17403,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="39">
         <v>44562</v>
       </c>
@@ -17428,7 +17429,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="39">
         <v>44593</v>
       </c>
@@ -17448,7 +17449,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="39">
         <v>44621</v>
       </c>
@@ -17472,7 +17473,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="39">
         <v>44652</v>
       </c>
@@ -17492,7 +17493,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="39">
         <v>44682</v>
       </c>
@@ -17512,7 +17513,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="39">
         <v>44713</v>
       </c>
@@ -17532,7 +17533,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="39">
         <v>44743</v>
       </c>
@@ -17556,7 +17557,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="39">
         <v>44774</v>
       </c>
@@ -17582,7 +17583,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="39">
         <v>44805</v>
       </c>
@@ -17608,7 +17609,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="39"/>
       <c r="B605" s="20" t="s">
         <v>46</v>
@@ -17630,7 +17631,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="39">
         <v>44835</v>
       </c>
@@ -17656,7 +17657,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="39"/>
       <c r="B607" s="20" t="s">
         <v>46</v>
@@ -17678,7 +17679,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="39">
         <v>44866</v>
       </c>
@@ -17704,7 +17705,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="39">
         <v>44896</v>
       </c>
@@ -17724,7 +17725,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="46" t="s">
         <v>404</v>
       </c>
@@ -17742,7 +17743,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="39">
         <v>44927</v>
       </c>
@@ -17768,7 +17769,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="39">
         <v>44958</v>
       </c>
@@ -17792,7 +17793,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="39">
         <v>44986</v>
       </c>
@@ -17818,7 +17819,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="39">
         <v>45017</v>
       </c>
@@ -17844,7 +17845,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="39"/>
       <c r="B615" s="20" t="s">
         <v>54</v>
@@ -17864,7 +17865,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="39">
         <v>45047</v>
       </c>
@@ -17888,7 +17889,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="39"/>
       <c r="B617" s="20" t="s">
         <v>46</v>
@@ -17910,11 +17911,11 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A618" s="39">
-        <v>45078</v>
-      </c>
-      <c r="B618" s="20"/>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A618" s="39"/>
+      <c r="B618" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C618" s="13"/>
       <c r="D618" s="38"/>
       <c r="E618" s="9"/>
@@ -17923,14 +17924,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H618" s="38"/>
+      <c r="H618" s="38">
+        <v>1</v>
+      </c>
       <c r="I618" s="9"/>
       <c r="J618" s="11"/>
-      <c r="K618" s="20"/>
-    </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K618" s="47">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="39">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17946,9 +17951,9 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="39">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17964,9 +17969,9 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17982,9 +17987,9 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -18000,9 +18005,9 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -18018,23 +18023,41 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B624" s="20"/>
+      <c r="C624" s="13"/>
+      <c r="D624" s="38"/>
+      <c r="E624" s="9"/>
+      <c r="F624" s="20"/>
+      <c r="G624" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H624" s="38"/>
+      <c r="I624" s="9"/>
+      <c r="J624" s="11"/>
+      <c r="K624" s="20"/>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A625" s="39">
         <v>45261</v>
       </c>
-      <c r="B624" s="15"/>
-      <c r="C624" s="40"/>
-      <c r="D624" s="41"/>
-      <c r="E624" s="51"/>
-      <c r="F624" s="15"/>
-      <c r="G624" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H624" s="41"/>
-      <c r="I624" s="51"/>
-      <c r="J624" s="12"/>
-      <c r="K624" s="15"/>
+      <c r="B625" s="15"/>
+      <c r="C625" s="40"/>
+      <c r="D625" s="41"/>
+      <c r="E625" s="51"/>
+      <c r="F625" s="15"/>
+      <c r="G625" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H625" s="41"/>
+      <c r="I625" s="51"/>
+      <c r="J625" s="12"/>
+      <c r="K625" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18051,10 +18074,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18077,7 +18100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -18085,21 +18108,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -18112,7 +18135,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18141,7 +18164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>29.667999999999999</v>
       </c>
@@ -18169,17 +18192,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -18200,7 +18223,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -18227,7 +18250,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -18253,7 +18276,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -18279,7 +18302,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -18305,7 +18328,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -18331,7 +18354,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -18357,7 +18380,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -18383,7 +18406,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -18409,7 +18432,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -18429,7 +18452,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -18449,7 +18472,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -18469,7 +18492,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -18490,7 +18513,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -18511,7 +18534,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -18532,7 +18555,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -18553,7 +18576,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -18574,7 +18597,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -18595,7 +18618,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -18616,7 +18639,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -18637,7 +18660,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -18658,7 +18681,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -18679,7 +18702,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -18700,7 +18723,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -18721,7 +18744,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -18742,7 +18765,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -18763,7 +18786,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -18784,7 +18807,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -18805,7 +18828,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -18826,7 +18849,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -18847,7 +18870,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -18868,7 +18891,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -18889,7 +18912,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -18898,7 +18921,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -18907,7 +18930,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -18916,7 +18939,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -18925,7 +18948,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -18934,7 +18957,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -18943,7 +18966,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -18952,7 +18975,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -18961,7 +18984,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -18970,7 +18993,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -18979,7 +19002,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -18988,7 +19011,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -18997,7 +19020,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -19006,7 +19029,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -19015,7 +19038,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -19024,7 +19047,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -19033,7 +19056,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -19042,7 +19065,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -19051,7 +19074,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -19060,7 +19083,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -19069,7 +19092,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -19078,7 +19101,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -19087,7 +19110,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -19096,7 +19119,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -19105,7 +19128,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -19114,7 +19137,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -19123,7 +19146,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -19132,7 +19155,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -19141,7 +19164,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -19150,7 +19173,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MIRANDA, MARIA LOIDA.xlsx
+++ b/REGULAR/MIRANDA, MARIA LOIDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E687FFB-5017-4C11-95E4-2A6ECE917B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC5AD3A-DA3B-42AA-85FC-BEDD8FE0D5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="411">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3673,7 +3673,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -4071,9 +4071,9 @@
   <dimension ref="A2:K625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A609" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A615" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="H619" sqref="H619"/>
+      <selection pane="bottomLeft" activeCell="B620" sqref="B620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4240,7 +4240,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>120.90500000000003</v>
+        <v>122.15500000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4250,7 +4250,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>98.276000000000025</v>
+        <v>98.526000000000025</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17872,13 +17872,15 @@
       <c r="B616" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C616" s="13"/>
+      <c r="C616" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D616" s="38"/>
       <c r="E616" s="9"/>
       <c r="F616" s="20"/>
-      <c r="G616" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G616" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H616" s="38">
         <v>1</v>
@@ -17937,7 +17939,9 @@
       <c r="A619" s="39">
         <v>45078</v>
       </c>
-      <c r="B619" s="20"/>
+      <c r="B619" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C619" s="13"/>
       <c r="D619" s="38"/>
       <c r="E619" s="9"/>
@@ -17946,10 +17950,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H619" s="38"/>
+      <c r="H619" s="38">
+        <v>1</v>
+      </c>
       <c r="I619" s="9"/>
       <c r="J619" s="11"/>
-      <c r="K619" s="20"/>
+      <c r="K619" s="47">
+        <v>45096</v>
+      </c>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="39">

--- a/REGULAR/MIRANDA, MARIA LOIDA.xlsx
+++ b/REGULAR/MIRANDA, MARIA LOIDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC5AD3A-DA3B-42AA-85FC-BEDD8FE0D5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="411">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1273,7 +1272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2155,7 +2154,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2197,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2261,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2321,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,7 +2387,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2450,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,7 +2548,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2607,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2672,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2716,7 +2715,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2791,7 +2790,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2977,7 +2976,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3043,7 +3042,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3101,7 +3100,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3167,7 +3166,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3223,7 +3222,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3298,7 +3297,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,7 +3340,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3407,7 +3406,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3462,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3561,7 +3560,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3624,7 +3623,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3673,7 +3672,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3690,25 +3689,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K625" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K625" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3720,13 +3719,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3735,14 +3734,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4046,7 +4045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4056,7 +4055,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4064,34 +4063,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A615" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A615" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="B620" sqref="B620"/>
+      <selection pane="bottomLeft" activeCell="I620" sqref="I620"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4114,7 +4113,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4136,7 +4135,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4158,7 +4157,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4166,7 +4165,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4179,7 +4178,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -4196,7 +4195,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4231,7 +4230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4250,12 +4249,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>98.526000000000025</v>
+        <v>97.526000000000025</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>44</v>
       </c>
@@ -4277,7 +4276,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>35796</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>35818</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4325,7 +4324,7 @@
         <v>35823</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="20" t="s">
         <v>47</v>
@@ -4345,7 +4344,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="47"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>35827</v>
       </c>
@@ -4371,7 +4370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -4393,7 +4392,7 @@
         <v>35829</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="20" t="s">
         <v>51</v>
@@ -4415,7 +4414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -4437,7 +4436,7 @@
         <v>35852</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="20" t="s">
         <v>52</v>
@@ -4457,7 +4456,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="47"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>35855</v>
       </c>
@@ -4483,7 +4482,7 @@
         <v>35864</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -4505,7 +4504,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="20" t="s">
         <v>54</v>
@@ -4525,7 +4524,7 @@
         <v>35874</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="20" t="s">
         <v>45</v>
@@ -4547,7 +4546,7 @@
         <v>35879</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="20" t="s">
         <v>55</v>
@@ -4567,7 +4566,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>35886</v>
       </c>
@@ -4593,7 +4592,7 @@
         <v>35893</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="20" t="s">
         <v>56</v>
@@ -4613,7 +4612,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="47"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>35916</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="15" t="s">
         <v>46</v>
@@ -4659,7 +4658,7 @@
         <v>35937</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="15" t="s">
         <v>57</v>
@@ -4679,7 +4678,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="48"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>35947</v>
       </c>
@@ -4705,7 +4704,7 @@
         <v>35948</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="15" t="s">
         <v>54</v>
@@ -4725,7 +4724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="15" t="s">
         <v>57</v>
@@ -4745,7 +4744,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="48"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>35977</v>
       </c>
@@ -4771,7 +4770,7 @@
         <v>36007</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="20" t="s">
         <v>57</v>
@@ -4791,7 +4790,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="47"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>36008</v>
       </c>
@@ -4817,7 +4816,7 @@
         <v>36034</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="20" t="s">
         <v>59</v>
@@ -4837,7 +4836,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="47"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>36039</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>36068</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="20" t="s">
         <v>60</v>
@@ -4883,7 +4882,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="47"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>36069</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="20" t="s">
         <v>63</v>
@@ -4929,7 +4928,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>36100</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>36130</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>36111</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="20" t="s">
         <v>65</v>
@@ -5001,7 +5000,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="47"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s">
         <v>66</v>
       </c>
@@ -5019,7 +5018,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="47"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>36161</v>
       </c>
@@ -5045,7 +5044,7 @@
         <v>36189</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="20" t="s">
         <v>67</v>
@@ -5065,7 +5064,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="47"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <v>36192</v>
       </c>
@@ -5091,7 +5090,7 @@
         <v>36206</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="20" t="s">
         <v>68</v>
@@ -5111,7 +5110,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>36220</v>
       </c>
@@ -5135,7 +5134,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>36251</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>36262</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="20" t="s">
         <v>46</v>
@@ -5183,7 +5182,7 @@
         <v>36263</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="20" t="s">
         <v>70</v>
@@ -5203,7 +5202,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="47"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>36281</v>
       </c>
@@ -5229,7 +5228,7 @@
         <v>36297</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="20" t="s">
         <v>71</v>
@@ -5249,7 +5248,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="47"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <v>36312</v>
       </c>
@@ -5273,7 +5272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="20" t="s">
         <v>54</v>
@@ -5293,7 +5292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="20" t="s">
         <v>46</v>
@@ -5315,7 +5314,7 @@
         <v>36340</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="20" t="s">
         <v>74</v>
@@ -5335,7 +5334,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="47"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>36342</v>
       </c>
@@ -5359,7 +5358,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>36373</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>36364</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="20" t="s">
         <v>76</v>
@@ -5405,7 +5404,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="47"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>36404</v>
       </c>
@@ -5429,7 +5428,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <v>36434</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="20" t="s">
         <v>54</v>
@@ -5475,7 +5474,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="20" t="s">
         <v>81</v>
@@ -5497,7 +5496,7 @@
         <v>36457</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>36465</v>
       </c>
@@ -5523,7 +5522,7 @@
         <v>36481</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="20" t="s">
         <v>82</v>
@@ -5543,7 +5542,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="47"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <v>36495</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>36502</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="20" t="s">
         <v>83</v>
@@ -5589,7 +5588,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="47"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="46" t="s">
         <v>84</v>
       </c>
@@ -5607,7 +5606,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="47"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>36526</v>
       </c>
@@ -5631,7 +5630,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <v>36557</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="20" t="s">
         <v>87</v>
@@ -5677,7 +5676,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <v>36586</v>
       </c>
@@ -5701,7 +5700,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="20" t="s">
         <v>46</v>
@@ -5723,7 +5722,7 @@
         <v>36608</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="20" t="s">
         <v>89</v>
@@ -5743,7 +5742,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>36617</v>
       </c>
@@ -5767,7 +5766,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <v>36647</v>
       </c>
@@ -5791,7 +5790,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <v>36678</v>
       </c>
@@ -5815,7 +5814,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="20" t="s">
         <v>46</v>
@@ -5837,7 +5836,7 @@
         <v>36690</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="20" t="s">
         <v>54</v>
@@ -5857,7 +5856,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="20" t="s">
         <v>94</v>
@@ -5877,7 +5876,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="47"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <v>36708</v>
       </c>
@@ -5901,7 +5900,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>36739</v>
       </c>
@@ -5925,7 +5924,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <v>36770</v>
       </c>
@@ -5949,7 +5948,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="20" t="s">
         <v>45</v>
@@ -5971,7 +5970,7 @@
         <v>36784</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="20" t="s">
         <v>97</v>
@@ -5991,7 +5990,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <v>36800</v>
       </c>
@@ -6017,7 +6016,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="20" t="s">
         <v>46</v>
@@ -6039,7 +6038,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
         <v>45</v>
@@ -6061,7 +6060,7 @@
         <v>36829</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="20" t="s">
         <v>100</v>
@@ -6081,7 +6080,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <v>36831</v>
       </c>
@@ -6105,7 +6104,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>36861</v>
       </c>
@@ -6131,7 +6130,7 @@
         <v>36868</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="20" t="s">
         <v>102</v>
@@ -6151,7 +6150,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="47"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="46" t="s">
         <v>103</v>
       </c>
@@ -6169,7 +6168,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="47"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <v>36892</v>
       </c>
@@ -6193,7 +6192,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <v>36923</v>
       </c>
@@ -6217,7 +6216,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <v>36951</v>
       </c>
@@ -6241,7 +6240,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <v>36982</v>
       </c>
@@ -6265,7 +6264,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <v>37012</v>
       </c>
@@ -6291,7 +6290,7 @@
         <v>37032</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="20" t="s">
         <v>46</v>
@@ -6313,7 +6312,7 @@
         <v>37036</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
       <c r="B101" s="20" t="s">
         <v>48</v>
@@ -6335,7 +6334,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <v>37043</v>
       </c>
@@ -6359,7 +6358,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <v>37073</v>
       </c>
@@ -6385,7 +6384,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="20" t="s">
         <v>110</v>
@@ -6405,7 +6404,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <v>37104</v>
       </c>
@@ -6429,7 +6428,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <v>37135</v>
       </c>
@@ -6455,7 +6454,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="20" t="s">
         <v>113</v>
@@ -6477,7 +6476,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <v>37165</v>
       </c>
@@ -6501,7 +6500,7 @@
         <v>37169</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="20" t="s">
         <v>46</v>
@@ -6523,7 +6522,7 @@
         <v>37176</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
       <c r="B110" s="20" t="s">
         <v>54</v>
@@ -6543,7 +6542,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="20" t="s">
         <v>114</v>
@@ -6563,7 +6562,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="47"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
         <v>37196</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>37208</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
       <c r="B113" s="20" t="s">
         <v>54</v>
@@ -6609,7 +6608,7 @@
         <v>37224</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
       <c r="B114" s="20" t="s">
         <v>115</v>
@@ -6629,7 +6628,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="47"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <v>37226</v>
       </c>
@@ -6653,7 +6652,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
       <c r="B116" s="20" t="s">
         <v>51</v>
@@ -6675,7 +6674,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="46" t="s">
         <v>103</v>
       </c>
@@ -6693,7 +6692,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
         <v>37257</v>
       </c>
@@ -6717,7 +6716,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
         <v>37288</v>
       </c>
@@ -6741,7 +6740,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39"/>
       <c r="B120" s="20" t="s">
         <v>51</v>
@@ -6763,7 +6762,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
         <v>37316</v>
       </c>
@@ -6787,7 +6786,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
         <v>37347</v>
       </c>
@@ -6811,7 +6810,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
         <v>37377</v>
       </c>
@@ -6837,7 +6836,7 @@
         <v>37371</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
         <v>37408</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>37396</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="20" t="s">
         <v>46</v>
@@ -6885,7 +6884,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39"/>
       <c r="B126" s="20" t="s">
         <v>124</v>
@@ -6905,7 +6904,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="47"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
         <v>37438</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>37463</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39">
         <v>37469</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>37473</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="39"/>
       <c r="B129" s="20" t="s">
         <v>127</v>
@@ -6977,7 +6976,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>37500</v>
       </c>
@@ -6997,7 +6996,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>37530</v>
       </c>
@@ -7023,7 +7022,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39"/>
       <c r="B132" s="20" t="s">
         <v>46</v>
@@ -7045,7 +7044,7 @@
         <v>37536</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39"/>
       <c r="B133" s="20" t="s">
         <v>48</v>
@@ -7067,7 +7066,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="39"/>
       <c r="B134" s="20" t="s">
         <v>46</v>
@@ -7089,7 +7088,7 @@
         <v>37546</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="39"/>
       <c r="B135" s="20" t="s">
         <v>45</v>
@@ -7111,7 +7110,7 @@
         <v>37559</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="39"/>
       <c r="B136" s="20" t="s">
         <v>126</v>
@@ -7131,7 +7130,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="39">
         <v>37561</v>
       </c>
@@ -7157,7 +7156,7 @@
         <v>37589</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="39"/>
       <c r="B138" s="20" t="s">
         <v>130</v>
@@ -7177,7 +7176,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="47"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="39">
         <v>37591</v>
       </c>
@@ -7201,7 +7200,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="20" t="s">
         <v>48</v>
@@ -7223,7 +7222,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="39"/>
       <c r="B141" s="20" t="s">
         <v>133</v>
@@ -7243,7 +7242,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="46" t="s">
         <v>134</v>
       </c>
@@ -7261,7 +7260,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="39">
         <v>37622</v>
       </c>
@@ -7287,7 +7286,7 @@
         <v>37623</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="39"/>
       <c r="B144" s="20" t="s">
         <v>135</v>
@@ -7307,7 +7306,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="47"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="39">
         <v>37653</v>
       </c>
@@ -7333,7 +7332,7 @@
         <v>37662</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="39">
         <v>37681</v>
       </c>
@@ -7359,7 +7358,7 @@
         <v>37697</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="39"/>
       <c r="B147" s="20" t="s">
         <v>46</v>
@@ -7381,7 +7380,7 @@
         <v>37701</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="39"/>
       <c r="B148" s="20" t="s">
         <v>136</v>
@@ -7401,7 +7400,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="47"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="39">
         <v>37712</v>
       </c>
@@ -7425,7 +7424,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="39">
         <v>37742</v>
       </c>
@@ -7451,7 +7450,7 @@
         <v>37758</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="39"/>
       <c r="B151" s="20" t="s">
         <v>138</v>
@@ -7471,7 +7470,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="47"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="39">
         <v>37773</v>
       </c>
@@ -7497,7 +7496,7 @@
         <v>37781</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="39"/>
       <c r="B153" s="20" t="s">
         <v>139</v>
@@ -7517,7 +7516,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="47"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="39">
         <v>37803</v>
       </c>
@@ -7543,7 +7542,7 @@
         <v>37827</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="39"/>
       <c r="B155" s="20" t="s">
         <v>140</v>
@@ -7563,7 +7562,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="47"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="39">
         <v>37834</v>
       </c>
@@ -7587,7 +7586,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="39">
         <v>37865</v>
       </c>
@@ -7613,7 +7612,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="39"/>
       <c r="B158" s="20" t="s">
         <v>111</v>
@@ -7633,7 +7632,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="39"/>
       <c r="B159" s="20" t="s">
         <v>54</v>
@@ -7653,7 +7652,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="39"/>
       <c r="B160" s="20" t="s">
         <v>119</v>
@@ -7673,7 +7672,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="39">
         <v>37895</v>
       </c>
@@ -7699,7 +7698,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="39"/>
       <c r="B162" s="20" t="s">
         <v>97</v>
@@ -7721,7 +7720,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="39"/>
       <c r="B163" s="20" t="s">
         <v>145</v>
@@ -7741,7 +7740,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="39">
         <v>37926</v>
       </c>
@@ -7767,7 +7766,7 @@
         <v>37944</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="39"/>
       <c r="B165" s="20" t="s">
         <v>146</v>
@@ -7787,7 +7786,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="47"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="39">
         <v>37956</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>37973</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="39"/>
       <c r="B167" s="20" t="s">
         <v>46</v>
@@ -7835,7 +7834,7 @@
         <v>37978</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="39"/>
       <c r="B168" s="20" t="s">
         <v>46</v>
@@ -7857,7 +7856,7 @@
         <v>37984</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="39"/>
       <c r="B169" s="20" t="s">
         <v>147</v>
@@ -7877,7 +7876,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="47"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="46" t="s">
         <v>148</v>
       </c>
@@ -7895,7 +7894,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="47"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="39">
         <v>37987</v>
       </c>
@@ -7921,7 +7920,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="39"/>
       <c r="B172" s="20" t="s">
         <v>46</v>
@@ -7943,7 +7942,7 @@
         <v>38007</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="39"/>
       <c r="B173" s="20" t="s">
         <v>149</v>
@@ -7963,7 +7962,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="47"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="39">
         <v>38018</v>
       </c>
@@ -7987,7 +7986,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="39">
         <v>38047</v>
       </c>
@@ -8011,7 +8010,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="39"/>
       <c r="B176" s="20" t="s">
         <v>46</v>
@@ -8031,7 +8030,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="39">
         <v>38078</v>
       </c>
@@ -8057,7 +8056,7 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="39"/>
       <c r="B178" s="20" t="s">
         <v>46</v>
@@ -8079,7 +8078,7 @@
         <v>38104</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="39"/>
       <c r="B179" s="20" t="s">
         <v>153</v>
@@ -8099,7 +8098,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="47"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="39">
         <v>38108</v>
       </c>
@@ -8125,7 +8124,7 @@
         <v>38147</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="39"/>
       <c r="B181" s="20" t="s">
         <v>155</v>
@@ -8145,7 +8144,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="47"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="39">
         <v>38139</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>38141</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="39"/>
       <c r="B183" s="20" t="s">
         <v>166</v>
@@ -8189,7 +8188,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="39"/>
       <c r="B184" s="20" t="s">
         <v>154</v>
@@ -8209,7 +8208,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="39">
         <v>38169</v>
       </c>
@@ -8235,7 +8234,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="39"/>
       <c r="B186" s="20" t="s">
         <v>157</v>
@@ -8255,7 +8254,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="39">
         <v>38200</v>
       </c>
@@ -8279,7 +8278,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="39">
         <v>38231</v>
       </c>
@@ -8305,7 +8304,7 @@
         <v>38240</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="39"/>
       <c r="B189" s="20" t="s">
         <v>160</v>
@@ -8325,7 +8324,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="47"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="39">
         <v>38261</v>
       </c>
@@ -8351,7 +8350,7 @@
         <v>38264</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="39"/>
       <c r="B191" s="20" t="s">
         <v>48</v>
@@ -8373,7 +8372,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="39"/>
       <c r="B192" s="20" t="s">
         <v>45</v>
@@ -8395,7 +8394,7 @@
         <v>38289</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="39"/>
       <c r="B193" s="20" t="s">
         <v>46</v>
@@ -8417,7 +8416,7 @@
         <v>38279</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="39"/>
       <c r="B194" s="20" t="s">
         <v>162</v>
@@ -8437,7 +8436,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="47"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="39">
         <v>38292</v>
       </c>
@@ -8463,7 +8462,7 @@
         <v>38294</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="39"/>
       <c r="B196" s="20" t="s">
         <v>46</v>
@@ -8485,7 +8484,7 @@
         <v>38307</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="39"/>
       <c r="B197" s="20" t="s">
         <v>163</v>
@@ -8505,7 +8504,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="47"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="39">
         <v>38322</v>
       </c>
@@ -8529,7 +8528,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="46" t="s">
         <v>165</v>
       </c>
@@ -8547,7 +8546,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="39">
         <v>38353</v>
       </c>
@@ -8573,7 +8572,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="39"/>
       <c r="B201" s="20" t="s">
         <v>166</v>
@@ -8595,7 +8594,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="39"/>
       <c r="B202" s="20" t="s">
         <v>167</v>
@@ -8615,7 +8614,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="39">
         <v>38384</v>
       </c>
@@ -8639,7 +8638,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="39">
         <v>38412</v>
       </c>
@@ -8663,7 +8662,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="39">
         <v>38443</v>
       </c>
@@ -8687,7 +8686,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="39">
         <v>38473</v>
       </c>
@@ -8711,7 +8710,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="39"/>
       <c r="B207" s="20" t="s">
         <v>174</v>
@@ -8731,7 +8730,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="39">
         <v>38504</v>
       </c>
@@ -8755,7 +8754,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="39"/>
       <c r="B209" s="20" t="s">
         <v>54</v>
@@ -8775,7 +8774,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="39">
         <v>38534</v>
       </c>
@@ -8801,7 +8800,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
       <c r="B211" s="20" t="s">
         <v>166</v>
@@ -8823,7 +8822,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="39"/>
       <c r="B212" s="20" t="s">
         <v>135</v>
@@ -8843,7 +8842,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="39">
         <v>38565</v>
       </c>
@@ -8869,7 +8868,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="39"/>
       <c r="B214" s="20" t="s">
         <v>46</v>
@@ -8891,7 +8890,7 @@
         <v>38580</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="39"/>
       <c r="B215" s="20" t="s">
         <v>180</v>
@@ -8911,7 +8910,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="47"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="39">
         <v>38596</v>
       </c>
@@ -8935,7 +8934,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="39">
         <v>38626</v>
       </c>
@@ -8959,7 +8958,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="39">
         <v>38657</v>
       </c>
@@ -8983,7 +8982,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="39">
         <v>38687</v>
       </c>
@@ -9007,7 +9006,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="46" t="s">
         <v>185</v>
       </c>
@@ -9025,7 +9024,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="39">
         <v>38718</v>
       </c>
@@ -9049,7 +9048,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="39">
         <v>38749</v>
       </c>
@@ -9069,7 +9068,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="39">
         <v>38777</v>
       </c>
@@ -9089,7 +9088,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="39">
         <v>38808</v>
       </c>
@@ -9113,7 +9112,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="39">
         <v>38838</v>
       </c>
@@ -9133,7 +9132,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="39">
         <v>38869</v>
       </c>
@@ -9153,7 +9152,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="39">
         <v>38899</v>
       </c>
@@ -9177,7 +9176,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="39">
         <v>38930</v>
       </c>
@@ -9201,7 +9200,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="39">
         <v>38961</v>
       </c>
@@ -9227,7 +9226,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="39"/>
       <c r="B230" s="20" t="s">
         <v>54</v>
@@ -9247,7 +9246,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="39"/>
       <c r="B231" s="20" t="s">
         <v>68</v>
@@ -9267,7 +9266,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="39">
         <v>38991</v>
       </c>
@@ -9293,7 +9292,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="39"/>
       <c r="B233" s="20" t="s">
         <v>131</v>
@@ -9315,7 +9314,7 @@
         <v>39017</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="39">
         <v>39022</v>
       </c>
@@ -9339,7 +9338,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="39">
         <v>39052</v>
       </c>
@@ -9365,7 +9364,7 @@
         <v>39057</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="39"/>
       <c r="B236" s="20" t="s">
         <v>191</v>
@@ -9385,7 +9384,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="47"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="46" t="s">
         <v>192</v>
       </c>
@@ -9403,7 +9402,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="47"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="39">
         <v>39083</v>
       </c>
@@ -9429,7 +9428,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="39"/>
       <c r="B239" s="20" t="s">
         <v>194</v>
@@ -9449,7 +9448,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="39">
         <v>39114</v>
       </c>
@@ -9473,7 +9472,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="39">
         <v>39142</v>
       </c>
@@ -9497,7 +9496,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="39">
         <v>39173</v>
       </c>
@@ -9521,7 +9520,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="39">
         <v>39203</v>
       </c>
@@ -9545,7 +9544,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="39"/>
       <c r="B244" s="20" t="s">
         <v>199</v>
@@ -9563,7 +9562,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="39">
         <v>39234</v>
       </c>
@@ -9587,7 +9586,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="39">
         <v>39264</v>
       </c>
@@ -9611,7 +9610,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="39">
         <v>39295</v>
       </c>
@@ -9635,7 +9634,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="39">
         <v>39326</v>
       </c>
@@ -9655,7 +9654,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="39">
         <v>39356</v>
       </c>
@@ -9679,7 +9678,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="39">
         <v>39387</v>
       </c>
@@ -9699,7 +9698,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="39">
         <v>39417</v>
       </c>
@@ -9723,7 +9722,7 @@
       <c r="J251" s="12"/>
       <c r="K251" s="15"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="46" t="s">
         <v>204</v>
       </c>
@@ -9741,7 +9740,7 @@
       <c r="J252" s="12"/>
       <c r="K252" s="15"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="39">
         <v>39448</v>
       </c>
@@ -9761,7 +9760,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="39">
         <v>39479</v>
       </c>
@@ -9781,7 +9780,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="39">
         <v>39508</v>
       </c>
@@ -9805,7 +9804,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="39">
         <v>39539</v>
       </c>
@@ -9825,7 +9824,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="39">
         <v>39569</v>
       </c>
@@ -9849,7 +9848,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="39">
         <v>39600</v>
       </c>
@@ -9869,7 +9868,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="39">
         <v>39630</v>
       </c>
@@ -9895,7 +9894,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="39">
         <v>39661</v>
       </c>
@@ -9921,7 +9920,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="39">
         <v>39692</v>
       </c>
@@ -9941,7 +9940,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="39">
         <v>39722</v>
       </c>
@@ -9965,7 +9964,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="39">
         <v>39753</v>
       </c>
@@ -9985,7 +9984,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="39">
         <v>39783</v>
       </c>
@@ -10009,7 +10008,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="46" t="s">
         <v>211</v>
       </c>
@@ -10027,7 +10026,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="39">
         <v>39814</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="39"/>
       <c r="B267" s="20" t="s">
         <v>213</v>
@@ -10071,7 +10070,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="39">
         <v>39845</v>
       </c>
@@ -10095,7 +10094,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="39"/>
       <c r="B269" s="20" t="s">
         <v>54</v>
@@ -10115,7 +10114,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="39">
         <v>39873</v>
       </c>
@@ -10141,7 +10140,7 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="39"/>
       <c r="B271" s="20" t="s">
         <v>215</v>
@@ -10161,7 +10160,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="47"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="39">
         <v>39904</v>
       </c>
@@ -10187,7 +10186,7 @@
         <v>39932</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="39"/>
       <c r="B273" s="20" t="s">
         <v>216</v>
@@ -10207,7 +10206,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="47"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="39">
         <v>39934</v>
       </c>
@@ -10231,7 +10230,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="39"/>
       <c r="B275" s="20" t="s">
         <v>218</v>
@@ -10251,7 +10250,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="39">
         <v>39965</v>
       </c>
@@ -10275,7 +10274,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="39">
         <v>39995</v>
       </c>
@@ -10299,7 +10298,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="39">
         <v>40026</v>
       </c>
@@ -10323,7 +10322,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="39">
         <v>40057</v>
       </c>
@@ -10349,7 +10348,7 @@
         <v>40085</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="39"/>
       <c r="B280" s="20" t="s">
         <v>61</v>
@@ -10371,7 +10370,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="39"/>
       <c r="B281" s="20" t="s">
         <v>131</v>
@@ -10393,7 +10392,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="39"/>
       <c r="B282" s="20" t="s">
         <v>222</v>
@@ -10413,7 +10412,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="47"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="39">
         <v>40087</v>
       </c>
@@ -10439,7 +10438,7 @@
         <v>40106</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="39"/>
       <c r="B284" s="20" t="s">
         <v>131</v>
@@ -10461,7 +10460,7 @@
         <v>40123</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="39"/>
       <c r="B285" s="20" t="s">
         <v>223</v>
@@ -10481,7 +10480,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="47"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="39">
         <v>40118</v>
       </c>
@@ -10505,7 +10504,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="39">
         <v>40148</v>
       </c>
@@ -10529,7 +10528,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="46" t="s">
         <v>224</v>
       </c>
@@ -10547,7 +10546,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="39">
         <v>40179</v>
       </c>
@@ -10571,7 +10570,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="39">
         <v>40210</v>
       </c>
@@ -10591,7 +10590,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="39">
         <v>40238</v>
       </c>
@@ -10611,7 +10610,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="39">
         <v>40269</v>
       </c>
@@ -10635,7 +10634,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="39"/>
       <c r="B293" s="20" t="s">
         <v>130</v>
@@ -10655,7 +10654,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="39">
         <v>40299</v>
       </c>
@@ -10679,7 +10678,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="39">
         <v>40330</v>
       </c>
@@ -10699,7 +10698,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="39">
         <v>40360</v>
       </c>
@@ -10725,7 +10724,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="39"/>
       <c r="B297" s="20" t="s">
         <v>229</v>
@@ -10747,7 +10746,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="39"/>
       <c r="B298" s="20" t="s">
         <v>231</v>
@@ -10767,7 +10766,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="39">
         <v>40391</v>
       </c>
@@ -10793,7 +10792,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="39"/>
       <c r="B300" s="20" t="s">
         <v>233</v>
@@ -10813,7 +10812,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="39">
         <v>40422</v>
       </c>
@@ -10837,7 +10836,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="39">
         <v>40452</v>
       </c>
@@ -10857,7 +10856,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="39">
         <v>40483</v>
       </c>
@@ -10877,7 +10876,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="39">
         <v>40513</v>
       </c>
@@ -10901,7 +10900,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="46" t="s">
         <v>235</v>
       </c>
@@ -10919,7 +10918,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="39">
         <v>40544</v>
       </c>
@@ -10943,7 +10942,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="39"/>
       <c r="B307" s="20" t="s">
         <v>46</v>
@@ -10965,7 +10964,7 @@
         <v>40584</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="39">
         <v>40575</v>
       </c>
@@ -10989,7 +10988,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="39">
         <v>40603</v>
       </c>
@@ -11015,7 +11014,7 @@
         <v>40616</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="39"/>
       <c r="B310" s="20" t="s">
         <v>141</v>
@@ -11035,7 +11034,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="47"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="39">
         <v>40634</v>
       </c>
@@ -11059,7 +11058,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="39"/>
       <c r="B312" s="20" t="s">
         <v>54</v>
@@ -11079,7 +11078,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="39"/>
       <c r="B313" s="20" t="s">
         <v>140</v>
@@ -11099,7 +11098,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="39">
         <v>40664</v>
       </c>
@@ -11123,7 +11122,7 @@
         <v>40689</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="39"/>
       <c r="B315" s="20" t="s">
         <v>239</v>
@@ -11141,7 +11140,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="47"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="39">
         <v>40695</v>
       </c>
@@ -11167,7 +11166,7 @@
         <v>40710</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="39"/>
       <c r="B317" s="20" t="s">
         <v>240</v>
@@ -11187,7 +11186,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="47"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="39">
         <v>40725</v>
       </c>
@@ -11211,7 +11210,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="39"/>
       <c r="B319" s="20" t="s">
         <v>241</v>
@@ -11231,7 +11230,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="39">
         <v>40756</v>
       </c>
@@ -11257,7 +11256,7 @@
         <v>40758</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="39"/>
       <c r="B321" s="20" t="s">
         <v>131</v>
@@ -11279,7 +11278,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="39"/>
       <c r="B322" s="20" t="s">
         <v>242</v>
@@ -11299,7 +11298,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="47"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="39">
         <v>40787</v>
       </c>
@@ -11325,7 +11324,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="39"/>
       <c r="B324" s="20" t="s">
         <v>46</v>
@@ -11347,7 +11346,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="39"/>
       <c r="B325" s="20" t="s">
         <v>245</v>
@@ -11367,7 +11366,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="47"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="39">
         <v>40817</v>
       </c>
@@ -11393,7 +11392,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="39"/>
       <c r="B327" s="20" t="s">
         <v>54</v>
@@ -11413,7 +11412,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="39"/>
       <c r="B328" s="20" t="s">
         <v>46</v>
@@ -11435,7 +11434,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="39"/>
       <c r="B329" s="20" t="s">
         <v>247</v>
@@ -11455,7 +11454,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="47"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="39">
         <v>40848</v>
       </c>
@@ -11481,7 +11480,7 @@
         <v>40857</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="39"/>
       <c r="B331" s="20" t="s">
         <v>46</v>
@@ -11503,7 +11502,7 @@
         <v>40863</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="39"/>
       <c r="B332" s="20" t="s">
         <v>248</v>
@@ -11523,7 +11522,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="47"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="39">
         <v>40878</v>
       </c>
@@ -11549,7 +11548,7 @@
         <v>40879</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="39"/>
       <c r="B334" s="20" t="s">
         <v>243</v>
@@ -11571,7 +11570,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="39"/>
       <c r="B335" s="20" t="s">
         <v>166</v>
@@ -11593,7 +11592,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="39"/>
       <c r="B336" s="20" t="s">
         <v>243</v>
@@ -11613,7 +11612,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="47"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="39"/>
       <c r="B337" s="20" t="s">
         <v>194</v>
@@ -11633,7 +11632,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="47"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="46" t="s">
         <v>251</v>
       </c>
@@ -11651,7 +11650,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="47"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="39">
         <v>40909</v>
       </c>
@@ -11675,7 +11674,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="39">
         <v>40940</v>
       </c>
@@ -11701,7 +11700,7 @@
         <v>40949</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="39"/>
       <c r="B341" s="20" t="s">
         <v>54</v>
@@ -11721,7 +11720,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="39"/>
       <c r="B342" s="20" t="s">
         <v>254</v>
@@ -11741,7 +11740,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="47"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="39">
         <v>40969</v>
       </c>
@@ -11767,7 +11766,7 @@
         <v>40983</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="39"/>
       <c r="B344" s="20" t="s">
         <v>255</v>
@@ -11787,7 +11786,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="47"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="39">
         <v>41000</v>
       </c>
@@ -11813,7 +11812,7 @@
         <v>41009</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="39"/>
       <c r="B346" s="20" t="s">
         <v>54</v>
@@ -11833,7 +11832,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="39"/>
       <c r="B347" s="20" t="s">
         <v>46</v>
@@ -11855,7 +11854,7 @@
         <v>41017</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="39"/>
       <c r="B348" s="20" t="s">
         <v>257</v>
@@ -11875,7 +11874,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="47"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39">
         <v>41030</v>
       </c>
@@ -11901,7 +11900,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="39"/>
       <c r="B350" s="20" t="s">
         <v>259</v>
@@ -11921,7 +11920,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="39">
         <v>41061</v>
       </c>
@@ -11945,7 +11944,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="39">
         <v>41091</v>
       </c>
@@ -11969,7 +11968,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="39">
         <v>41122</v>
       </c>
@@ -11993,7 +11992,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="39">
         <v>41153</v>
       </c>
@@ -12013,7 +12012,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39">
         <v>41183</v>
       </c>
@@ -12033,7 +12032,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39">
         <v>41214</v>
       </c>
@@ -12053,7 +12052,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="39">
         <v>41244</v>
       </c>
@@ -12079,7 +12078,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="46" t="s">
         <v>263</v>
       </c>
@@ -12097,7 +12096,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="39">
         <v>41275</v>
       </c>
@@ -12121,7 +12120,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="39">
         <v>41306</v>
       </c>
@@ -12145,7 +12144,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39">
         <v>41334</v>
       </c>
@@ -12169,7 +12168,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39">
         <v>41365</v>
       </c>
@@ -12193,7 +12192,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39">
         <v>41395</v>
       </c>
@@ -12217,7 +12216,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="39">
         <v>41426</v>
       </c>
@@ -12241,7 +12240,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39">
         <v>41456</v>
       </c>
@@ -12265,7 +12264,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39">
         <v>41487</v>
       </c>
@@ -12289,7 +12288,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="39">
         <v>41518</v>
       </c>
@@ -12313,7 +12312,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39">
         <v>41548</v>
       </c>
@@ -12337,7 +12336,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="39"/>
       <c r="B369" s="20" t="s">
         <v>272</v>
@@ -12357,7 +12356,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="39">
         <v>41579</v>
       </c>
@@ -12381,7 +12380,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39">
         <v>41609</v>
       </c>
@@ -12405,7 +12404,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="46" t="s">
         <v>274</v>
       </c>
@@ -12423,7 +12422,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39">
         <v>41640</v>
       </c>
@@ -12447,7 +12446,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="39">
         <v>41671</v>
       </c>
@@ -12471,7 +12470,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="39"/>
       <c r="B375" s="20" t="s">
         <v>51</v>
@@ -12493,7 +12492,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="39">
         <v>41699</v>
       </c>
@@ -12517,7 +12516,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="39"/>
       <c r="B377" s="20" t="s">
         <v>46</v>
@@ -12539,7 +12538,7 @@
         <v>41725</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="39">
         <v>41730</v>
       </c>
@@ -12563,7 +12562,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="39">
         <v>41760</v>
       </c>
@@ -12587,7 +12586,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="39">
         <v>41791</v>
       </c>
@@ -12611,7 +12610,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="39">
         <v>41821</v>
       </c>
@@ -12635,7 +12634,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39">
         <v>41852</v>
       </c>
@@ -12659,7 +12658,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="39">
         <v>41883</v>
       </c>
@@ -12683,7 +12682,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="39">
         <v>41913</v>
       </c>
@@ -12707,7 +12706,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39"/>
       <c r="B385" s="20" t="s">
         <v>166</v>
@@ -12729,7 +12728,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="39">
         <v>41944</v>
       </c>
@@ -12755,7 +12754,7 @@
         <v>41946</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39"/>
       <c r="B387" s="20" t="s">
         <v>51</v>
@@ -12777,7 +12776,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39"/>
       <c r="B388" s="20" t="s">
         <v>285</v>
@@ -12799,7 +12798,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39"/>
       <c r="B389" s="20" t="s">
         <v>287</v>
@@ -12819,7 +12818,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="47"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39">
         <v>41974</v>
       </c>
@@ -12845,7 +12844,7 @@
         <v>41982</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39"/>
       <c r="B391" s="20" t="s">
         <v>289</v>
@@ -12865,7 +12864,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="47"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39"/>
       <c r="B392" s="20" t="s">
         <v>243</v>
@@ -12885,7 +12884,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="47"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="46" t="s">
         <v>288</v>
       </c>
@@ -12903,7 +12902,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="39">
         <v>42005</v>
       </c>
@@ -12927,7 +12926,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39"/>
       <c r="B395" s="20" t="s">
         <v>291</v>
@@ -12947,7 +12946,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="39">
         <v>42036</v>
       </c>
@@ -12973,7 +12972,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -12995,7 +12994,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39"/>
       <c r="B398" s="20" t="s">
         <v>48</v>
@@ -13017,7 +13016,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39"/>
       <c r="B399" s="20" t="s">
         <v>294</v>
@@ -13037,7 +13036,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="39">
         <v>42064</v>
       </c>
@@ -13063,7 +13062,7 @@
         <v>42087</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="39"/>
       <c r="B401" s="20" t="s">
         <v>295</v>
@@ -13083,7 +13082,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="47"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39">
         <v>42095</v>
       </c>
@@ -13107,7 +13106,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="39"/>
       <c r="B403" s="20" t="s">
         <v>297</v>
@@ -13127,7 +13126,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="39">
         <v>42125</v>
       </c>
@@ -13153,7 +13152,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39"/>
       <c r="B405" s="20" t="s">
         <v>298</v>
@@ -13173,7 +13172,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="47"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="39">
         <v>42156</v>
       </c>
@@ -13199,7 +13198,7 @@
         <v>42135</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="39"/>
       <c r="B407" s="20" t="s">
         <v>46</v>
@@ -13217,7 +13216,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="47"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="39"/>
       <c r="B408" s="20" t="s">
         <v>299</v>
@@ -13237,7 +13236,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="47"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="39">
         <v>42186</v>
       </c>
@@ -13261,7 +13260,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="39">
         <v>42217</v>
       </c>
@@ -13287,7 +13286,7 @@
         <v>42223</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="39"/>
       <c r="B411" s="20" t="s">
         <v>46</v>
@@ -13309,7 +13308,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="39"/>
       <c r="B412" s="20" t="s">
         <v>300</v>
@@ -13329,7 +13328,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="47"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="39">
         <v>42248</v>
       </c>
@@ -13355,7 +13354,7 @@
         <v>42262</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="39"/>
       <c r="B414" s="20" t="s">
         <v>191</v>
@@ -13377,7 +13376,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="39"/>
       <c r="B415" s="20" t="s">
         <v>127</v>
@@ -13397,7 +13396,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="39"/>
       <c r="B416" s="20" t="s">
         <v>46</v>
@@ -13419,7 +13418,7 @@
         <v>42271</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="39"/>
       <c r="B417" s="20" t="s">
         <v>48</v>
@@ -13441,7 +13440,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39"/>
       <c r="B418" s="20" t="s">
         <v>301</v>
@@ -13461,7 +13460,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="39">
         <v>42278</v>
       </c>
@@ -13487,7 +13486,7 @@
         <v>42307</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39"/>
       <c r="B420" s="20" t="s">
         <v>46</v>
@@ -13509,7 +13508,7 @@
         <v>42293</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39"/>
       <c r="B421" s="20" t="s">
         <v>46</v>
@@ -13531,7 +13530,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39"/>
       <c r="B422" s="20" t="s">
         <v>304</v>
@@ -13551,7 +13550,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="47"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39">
         <v>42309</v>
       </c>
@@ -13577,7 +13576,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39"/>
       <c r="B424" s="20" t="s">
         <v>48</v>
@@ -13599,7 +13598,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="39"/>
       <c r="B425" s="20" t="s">
         <v>46</v>
@@ -13621,7 +13620,7 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39"/>
       <c r="B426" s="20" t="s">
         <v>46</v>
@@ -13643,7 +13642,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39"/>
       <c r="B427" s="20" t="s">
         <v>46</v>
@@ -13665,7 +13664,7 @@
         <v>42347</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39"/>
       <c r="B428" s="20" t="s">
         <v>307</v>
@@ -13685,7 +13684,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="39">
         <v>42339</v>
       </c>
@@ -13711,7 +13710,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="39"/>
       <c r="B430" s="20" t="s">
         <v>308</v>
@@ -13731,7 +13730,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="46" t="s">
         <v>309</v>
       </c>
@@ -13749,7 +13748,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39">
         <v>42370</v>
       </c>
@@ -13775,7 +13774,7 @@
         <v>42395</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39"/>
       <c r="B433" s="20" t="s">
         <v>310</v>
@@ -13795,7 +13794,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="47"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="39">
         <v>42401</v>
       </c>
@@ -13821,7 +13820,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39"/>
       <c r="B435" s="20" t="s">
         <v>46</v>
@@ -13843,7 +13842,7 @@
         <v>42412</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="39"/>
       <c r="B436" s="20" t="s">
         <v>46</v>
@@ -13865,7 +13864,7 @@
         <v>42423</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39"/>
       <c r="B437" s="20" t="s">
         <v>312</v>
@@ -13885,7 +13884,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39">
         <v>42430</v>
       </c>
@@ -13911,7 +13910,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39"/>
       <c r="B439" s="20" t="s">
         <v>45</v>
@@ -13933,7 +13932,7 @@
         <v>42446</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39"/>
       <c r="B440" s="20" t="s">
         <v>48</v>
@@ -13955,7 +13954,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39"/>
       <c r="B441" s="20" t="s">
         <v>315</v>
@@ -13975,7 +13974,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39">
         <v>42461</v>
       </c>
@@ -13999,7 +13998,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39">
         <v>42491</v>
       </c>
@@ -14023,7 +14022,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="39">
         <v>42522</v>
       </c>
@@ -14049,7 +14048,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39"/>
       <c r="B445" s="20" t="s">
         <v>48</v>
@@ -14071,7 +14070,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39"/>
       <c r="B446" s="20" t="s">
         <v>46</v>
@@ -14093,7 +14092,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39"/>
       <c r="B447" s="20" t="s">
         <v>46</v>
@@ -14115,7 +14114,7 @@
         <v>42535</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39"/>
       <c r="B448" s="20" t="s">
         <v>166</v>
@@ -14137,7 +14136,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39"/>
       <c r="B449" s="20" t="s">
         <v>320</v>
@@ -14157,7 +14156,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39">
         <v>42552</v>
       </c>
@@ -14181,7 +14180,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39">
         <v>42583</v>
       </c>
@@ -14205,7 +14204,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="39"/>
       <c r="B452" s="20" t="s">
         <v>48</v>
@@ -14227,7 +14226,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39"/>
       <c r="B453" s="20" t="s">
         <v>48</v>
@@ -14249,7 +14248,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="39"/>
       <c r="B454" s="20" t="s">
         <v>46</v>
@@ -14271,7 +14270,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="39"/>
       <c r="B455" s="20" t="s">
         <v>326</v>
@@ -14291,7 +14290,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="39">
         <v>42614</v>
       </c>
@@ -14317,7 +14316,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="39"/>
       <c r="B457" s="20" t="s">
         <v>166</v>
@@ -14339,7 +14338,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="39"/>
       <c r="B458" s="20" t="s">
         <v>46</v>
@@ -14361,7 +14360,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="39"/>
       <c r="B459" s="20" t="s">
         <v>328</v>
@@ -14381,7 +14380,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="47"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="39">
         <v>42644</v>
       </c>
@@ -14405,7 +14404,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="39"/>
       <c r="B461" s="20" t="s">
         <v>54</v>
@@ -14425,7 +14424,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="39"/>
       <c r="B462" s="20" t="s">
         <v>330</v>
@@ -14445,7 +14444,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="39">
         <v>42675</v>
       </c>
@@ -14471,7 +14470,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="39"/>
       <c r="B464" s="20" t="s">
         <v>48</v>
@@ -14493,7 +14492,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="39"/>
       <c r="B465" s="20" t="s">
         <v>332</v>
@@ -14513,7 +14512,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="47"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="39">
         <v>42705</v>
       </c>
@@ -14539,7 +14538,7 @@
         <v>42716</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39"/>
       <c r="B467" s="20" t="s">
         <v>333</v>
@@ -14559,7 +14558,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="47"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="46" t="s">
         <v>334</v>
       </c>
@@ -14577,7 +14576,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="47"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="39">
         <v>42736</v>
       </c>
@@ -14601,7 +14600,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="39">
         <v>42767</v>
       </c>
@@ -14627,7 +14626,7 @@
         <v>42410</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="39"/>
       <c r="B471" s="20" t="s">
         <v>45</v>
@@ -14649,7 +14648,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="39"/>
       <c r="B472" s="20" t="s">
         <v>336</v>
@@ -14669,7 +14668,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="47"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="39">
         <v>42795</v>
       </c>
@@ -14695,7 +14694,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="39"/>
       <c r="B474" s="20" t="s">
         <v>51</v>
@@ -14717,7 +14716,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="39"/>
       <c r="B475" s="20" t="s">
         <v>339</v>
@@ -14737,7 +14736,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="39">
         <v>42826</v>
       </c>
@@ -14763,7 +14762,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="39"/>
       <c r="B477" s="20" t="s">
         <v>340</v>
@@ -14783,7 +14782,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="39">
         <v>42856</v>
       </c>
@@ -14809,7 +14808,7 @@
         <v>42499</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="39">
         <v>42887</v>
       </c>
@@ -14829,7 +14828,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="39">
         <v>42917</v>
       </c>
@@ -14855,7 +14854,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="39"/>
       <c r="B481" s="20" t="s">
         <v>343</v>
@@ -14875,7 +14874,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="39">
         <v>42948</v>
       </c>
@@ -14899,7 +14898,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="39">
         <v>42979</v>
       </c>
@@ -14923,7 +14922,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="39">
         <v>43009</v>
       </c>
@@ -14949,7 +14948,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="39"/>
       <c r="B485" s="20" t="s">
         <v>54</v>
@@ -14969,7 +14968,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="39"/>
       <c r="B486" s="20" t="s">
         <v>346</v>
@@ -14991,7 +14990,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="39"/>
       <c r="B487" s="20" t="s">
         <v>54</v>
@@ -15011,7 +15010,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="39"/>
       <c r="B488" s="20" t="s">
         <v>349</v>
@@ -15031,7 +15030,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="39">
         <v>43040</v>
       </c>
@@ -15057,7 +15056,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="39">
         <v>43070</v>
       </c>
@@ -15083,7 +15082,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="46" t="s">
         <v>352</v>
       </c>
@@ -15101,7 +15100,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="39">
         <v>43101</v>
       </c>
@@ -15121,7 +15120,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="39">
         <v>43132</v>
       </c>
@@ -15147,7 +15146,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="39"/>
       <c r="B494" s="20" t="s">
         <v>54</v>
@@ -15167,7 +15166,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="39">
         <v>43160</v>
       </c>
@@ -15187,7 +15186,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="39">
         <v>43191</v>
       </c>
@@ -15213,7 +15212,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="39"/>
       <c r="B497" s="20" t="s">
         <v>46</v>
@@ -15235,7 +15234,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="39"/>
       <c r="B498" s="20" t="s">
         <v>46</v>
@@ -15257,7 +15256,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="39"/>
       <c r="B499" s="20" t="s">
         <v>166</v>
@@ -15279,7 +15278,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="39"/>
       <c r="B500" s="20" t="s">
         <v>45</v>
@@ -15301,7 +15300,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="39">
         <v>43221</v>
       </c>
@@ -15327,7 +15326,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="39"/>
       <c r="B502" s="20" t="s">
         <v>48</v>
@@ -15349,7 +15348,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="39"/>
       <c r="B503" s="20" t="s">
         <v>358</v>
@@ -15369,7 +15368,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="47"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="39">
         <v>43252</v>
       </c>
@@ -15395,7 +15394,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="39"/>
       <c r="B505" s="20" t="s">
         <v>360</v>
@@ -15415,7 +15414,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="39">
         <v>43282</v>
       </c>
@@ -15441,7 +15440,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="39"/>
       <c r="B507" s="20" t="s">
         <v>46</v>
@@ -15463,7 +15462,7 @@
         <v>43306</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="39"/>
       <c r="B508" s="20" t="s">
         <v>87</v>
@@ -15483,7 +15482,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="47"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="39">
         <v>43313</v>
       </c>
@@ -15509,7 +15508,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="39"/>
       <c r="B510" s="20" t="s">
         <v>48</v>
@@ -15531,7 +15530,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="39"/>
       <c r="B511" s="20" t="s">
         <v>166</v>
@@ -15553,7 +15552,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="39"/>
       <c r="B512" s="20" t="s">
         <v>166</v>
@@ -15575,7 +15574,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="39"/>
       <c r="B513" s="20" t="s">
         <v>48</v>
@@ -15597,7 +15596,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="39"/>
       <c r="B514" s="20" t="s">
         <v>47</v>
@@ -15617,7 +15616,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="47"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="39">
         <v>43344</v>
       </c>
@@ -15643,7 +15642,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="39"/>
       <c r="B516" s="20" t="s">
         <v>166</v>
@@ -15665,7 +15664,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="39"/>
       <c r="B517" s="20" t="s">
         <v>367</v>
@@ -15687,7 +15686,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="39">
         <v>43374</v>
       </c>
@@ -15711,7 +15710,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="39"/>
       <c r="B519" s="20" t="s">
         <v>368</v>
@@ -15731,7 +15730,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="39">
         <v>43405</v>
       </c>
@@ -15755,7 +15754,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="39"/>
       <c r="B521" s="20" t="s">
         <v>46</v>
@@ -15777,7 +15776,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="39"/>
       <c r="B522" s="20" t="s">
         <v>46</v>
@@ -15799,7 +15798,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="39"/>
       <c r="B523" s="20" t="s">
         <v>369</v>
@@ -15819,7 +15818,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="47"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="39">
         <v>43435</v>
       </c>
@@ -15845,7 +15844,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="39"/>
       <c r="B525" s="20" t="s">
         <v>46</v>
@@ -15867,7 +15866,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="39"/>
       <c r="B526" s="20" t="s">
         <v>191</v>
@@ -15887,7 +15886,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="39"/>
       <c r="B527" s="20" t="s">
         <v>372</v>
@@ -15907,7 +15906,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="46" t="s">
         <v>371</v>
       </c>
@@ -15925,7 +15924,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="39">
         <v>43466</v>
       </c>
@@ -15951,7 +15950,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="39"/>
       <c r="B530" s="20" t="s">
         <v>375</v>
@@ -15971,7 +15970,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="39">
         <v>43497</v>
       </c>
@@ -15997,7 +15996,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="39"/>
       <c r="B532" s="20" t="s">
         <v>48</v>
@@ -16019,7 +16018,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="39"/>
       <c r="B533" s="20" t="s">
         <v>127</v>
@@ -16039,7 +16038,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="39"/>
       <c r="B534" s="20" t="s">
         <v>247</v>
@@ -16059,7 +16058,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="39">
         <v>43525</v>
       </c>
@@ -16085,7 +16084,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="39"/>
       <c r="B536" s="20" t="s">
         <v>221</v>
@@ -16105,7 +16104,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="39">
         <v>43556</v>
       </c>
@@ -16129,7 +16128,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="39"/>
       <c r="B538" s="20" t="s">
         <v>46</v>
@@ -16151,7 +16150,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="39"/>
       <c r="B539" s="20" t="s">
         <v>381</v>
@@ -16171,7 +16170,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="39">
         <v>43586</v>
       </c>
@@ -16197,7 +16196,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="39"/>
       <c r="B541" s="20" t="s">
         <v>46</v>
@@ -16219,7 +16218,7 @@
         <v>43615</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="39"/>
       <c r="B542" s="20" t="s">
         <v>344</v>
@@ -16239,7 +16238,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="47"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="39">
         <v>43617</v>
       </c>
@@ -16265,7 +16264,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="39"/>
       <c r="B544" s="20" t="s">
         <v>46</v>
@@ -16287,7 +16286,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="39"/>
       <c r="B545" s="20" t="s">
         <v>46</v>
@@ -16309,7 +16308,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="39"/>
       <c r="B546" s="20" t="s">
         <v>222</v>
@@ -16329,7 +16328,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="47"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="39">
         <v>43647</v>
       </c>
@@ -16355,7 +16354,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="39"/>
       <c r="B548" s="20" t="s">
         <v>77</v>
@@ -16375,7 +16374,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="39">
         <v>43678</v>
       </c>
@@ -16399,7 +16398,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="39">
         <v>43709</v>
       </c>
@@ -16425,7 +16424,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="39"/>
       <c r="B551" s="20" t="s">
         <v>46</v>
@@ -16447,7 +16446,7 @@
         <v>43734</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="39">
         <v>43739</v>
       </c>
@@ -16473,7 +16472,7 @@
         <v>43740</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="39"/>
       <c r="B553" s="20" t="s">
         <v>61</v>
@@ -16495,7 +16494,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="39"/>
       <c r="B554" s="20" t="s">
         <v>46</v>
@@ -16517,7 +16516,7 @@
         <v>43747</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="39"/>
       <c r="B555" s="20" t="s">
         <v>45</v>
@@ -16539,7 +16538,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="39">
         <v>43770</v>
       </c>
@@ -16565,7 +16564,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="39"/>
       <c r="B557" s="20" t="s">
         <v>46</v>
@@ -16585,7 +16584,7 @@
         <v>43796</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="39"/>
       <c r="B558" s="20" t="s">
         <v>48</v>
@@ -16607,7 +16606,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="39">
         <v>43800</v>
       </c>
@@ -16627,7 +16626,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="46" t="s">
         <v>387</v>
       </c>
@@ -16645,7 +16644,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="39">
         <v>43831</v>
       </c>
@@ -16671,7 +16670,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="39"/>
       <c r="B562" s="20" t="s">
         <v>389</v>
@@ -16691,7 +16690,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="39">
         <v>43862</v>
       </c>
@@ -16711,7 +16710,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="39">
         <v>43891</v>
       </c>
@@ -16731,7 +16730,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="39">
         <v>43922</v>
       </c>
@@ -16751,7 +16750,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="39">
         <v>43952</v>
       </c>
@@ -16771,7 +16770,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="39">
         <v>43983</v>
       </c>
@@ -16791,7 +16790,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="39">
         <v>44013</v>
       </c>
@@ -16815,7 +16814,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="39">
         <v>44044</v>
       </c>
@@ -16835,7 +16834,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="39">
         <v>44075</v>
       </c>
@@ -16861,7 +16860,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="39"/>
       <c r="B571" s="20" t="s">
         <v>46</v>
@@ -16881,7 +16880,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="39"/>
       <c r="B572" s="20" t="s">
         <v>46</v>
@@ -16901,7 +16900,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="39">
         <v>44105</v>
       </c>
@@ -16927,7 +16926,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="39"/>
       <c r="B574" s="20" t="s">
         <v>111</v>
@@ -16949,7 +16948,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="39"/>
       <c r="B575" s="20" t="s">
         <v>54</v>
@@ -16969,7 +16968,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="39"/>
       <c r="B576" s="20" t="s">
         <v>46</v>
@@ -16991,7 +16990,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="39"/>
       <c r="B577" s="20" t="s">
         <v>48</v>
@@ -17013,7 +17012,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="39"/>
       <c r="B578" s="20" t="s">
         <v>46</v>
@@ -17035,7 +17034,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="39">
         <v>44136</v>
       </c>
@@ -17055,7 +17054,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="39">
         <v>44166</v>
       </c>
@@ -17079,7 +17078,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="46" t="s">
         <v>395</v>
       </c>
@@ -17097,7 +17096,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="39">
         <v>44197</v>
       </c>
@@ -17117,7 +17116,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="39">
         <v>44228</v>
       </c>
@@ -17143,7 +17142,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="39">
         <v>44256</v>
       </c>
@@ -17163,7 +17162,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="39">
         <v>44287</v>
       </c>
@@ -17183,7 +17182,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="39">
         <v>44317</v>
       </c>
@@ -17203,7 +17202,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="39">
         <v>44348</v>
       </c>
@@ -17223,7 +17222,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="39">
         <v>44378</v>
       </c>
@@ -17247,7 +17246,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="39">
         <v>44409</v>
       </c>
@@ -17267,7 +17266,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="39">
         <v>44440</v>
       </c>
@@ -17287,7 +17286,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="39">
         <v>44470</v>
       </c>
@@ -17311,7 +17310,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="39"/>
       <c r="B592" s="20" t="s">
         <v>45</v>
@@ -17333,7 +17332,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="39">
         <v>44501</v>
       </c>
@@ -17359,7 +17358,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="39">
         <v>44531</v>
       </c>
@@ -17385,7 +17384,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="46" t="s">
         <v>400</v>
       </c>
@@ -17403,7 +17402,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="39">
         <v>44562</v>
       </c>
@@ -17429,7 +17428,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="39">
         <v>44593</v>
       </c>
@@ -17449,7 +17448,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="39">
         <v>44621</v>
       </c>
@@ -17473,7 +17472,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="39">
         <v>44652</v>
       </c>
@@ -17493,7 +17492,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="39">
         <v>44682</v>
       </c>
@@ -17513,7 +17512,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="39">
         <v>44713</v>
       </c>
@@ -17533,7 +17532,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="39">
         <v>44743</v>
       </c>
@@ -17557,7 +17556,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="39">
         <v>44774</v>
       </c>
@@ -17583,7 +17582,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="39">
         <v>44805</v>
       </c>
@@ -17609,7 +17608,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="39"/>
       <c r="B605" s="20" t="s">
         <v>46</v>
@@ -17631,7 +17630,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="39">
         <v>44835</v>
       </c>
@@ -17657,7 +17656,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="39"/>
       <c r="B607" s="20" t="s">
         <v>46</v>
@@ -17679,7 +17678,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="39">
         <v>44866</v>
       </c>
@@ -17705,7 +17704,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="39">
         <v>44896</v>
       </c>
@@ -17725,7 +17724,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="46" t="s">
         <v>404</v>
       </c>
@@ -17743,7 +17742,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="39">
         <v>44927</v>
       </c>
@@ -17769,7 +17768,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="39">
         <v>44958</v>
       </c>
@@ -17793,7 +17792,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="39">
         <v>44986</v>
       </c>
@@ -17819,7 +17818,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="39">
         <v>45017</v>
       </c>
@@ -17845,7 +17844,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="39"/>
       <c r="B615" s="20" t="s">
         <v>54</v>
@@ -17865,7 +17864,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="39">
         <v>45047</v>
       </c>
@@ -17891,7 +17890,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="39"/>
       <c r="B617" s="20" t="s">
         <v>46</v>
@@ -17913,7 +17912,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="39"/>
       <c r="B618" s="20" t="s">
         <v>46</v>
@@ -17935,7 +17934,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="39">
         <v>45078</v>
       </c>
@@ -17959,11 +17958,13 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="39">
         <v>45108</v>
       </c>
-      <c r="B620" s="20"/>
+      <c r="B620" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C620" s="13"/>
       <c r="D620" s="38"/>
       <c r="E620" s="9"/>
@@ -17972,12 +17973,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H620" s="38"/>
+      <c r="H620" s="38">
+        <v>1</v>
+      </c>
       <c r="I620" s="9"/>
       <c r="J620" s="11"/>
-      <c r="K620" s="20"/>
-    </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K620" s="47">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="39">
         <v>45139</v>
       </c>
@@ -17995,7 +18000,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="39">
         <v>45170</v>
       </c>
@@ -18013,7 +18018,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="39">
         <v>45200</v>
       </c>
@@ -18031,7 +18036,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="39">
         <v>45231</v>
       </c>
@@ -18049,7 +18054,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="39">
         <v>45261</v>
       </c>
@@ -18082,10 +18087,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18108,7 +18113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -18116,21 +18121,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -18143,7 +18148,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18172,7 +18177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>29.667999999999999</v>
       </c>
@@ -18200,17 +18205,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -18231,7 +18236,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -18258,7 +18263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -18284,7 +18289,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -18310,7 +18315,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -18336,7 +18341,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -18362,7 +18367,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -18388,7 +18393,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -18414,7 +18419,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -18440,7 +18445,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -18460,7 +18465,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -18480,7 +18485,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -18500,7 +18505,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -18521,7 +18526,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -18542,7 +18547,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -18563,7 +18568,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -18584,7 +18589,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -18605,7 +18610,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -18626,7 +18631,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -18647,7 +18652,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -18668,7 +18673,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -18689,7 +18694,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -18710,7 +18715,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -18731,7 +18736,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -18752,7 +18757,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -18773,7 +18778,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -18794,7 +18799,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -18815,7 +18820,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -18836,7 +18841,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -18857,7 +18862,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -18878,7 +18883,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -18899,7 +18904,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -18920,7 +18925,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -18929,7 +18934,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -18938,7 +18943,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -18947,7 +18952,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -18956,7 +18961,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -18965,7 +18970,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -18974,7 +18979,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -18983,7 +18988,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -18992,7 +18997,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -19001,7 +19006,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -19010,7 +19015,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -19019,7 +19024,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -19028,7 +19033,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -19037,7 +19042,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -19046,7 +19051,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -19055,7 +19060,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -19064,7 +19069,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -19073,7 +19078,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -19082,7 +19087,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -19091,7 +19096,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -19100,7 +19105,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -19109,7 +19114,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -19118,7 +19123,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -19127,7 +19132,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -19136,7 +19141,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -19145,7 +19150,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -19154,7 +19159,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -19163,7 +19168,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -19172,7 +19177,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -19181,7 +19186,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MIRANDA, MARIA LOIDA.xlsx
+++ b/REGULAR/MIRANDA, MARIA LOIDA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="411">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2154,7 +2154,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2197,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2261,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2321,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2387,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2450,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2548,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2607,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +2672,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2715,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2790,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2976,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3042,7 +3042,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3100,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,7 +3166,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3222,7 +3222,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,7 +3297,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +3340,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +3406,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3462,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,7 +3560,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3623,7 +3623,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3689,7 +3689,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K625" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K626" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4067,12 +4067,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K625"/>
+  <dimension ref="A2:K626"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A615" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="I620" sqref="I620"/>
+      <selection pane="bottomLeft" activeCell="I621" sqref="I621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4239,7 +4239,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>122.15500000000003</v>
+        <v>123.40500000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4249,7 +4249,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>97.526000000000025</v>
+        <v>97.776000000000025</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17941,13 +17941,15 @@
       <c r="B619" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C619" s="13"/>
+      <c r="C619" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D619" s="38"/>
       <c r="E619" s="9"/>
       <c r="F619" s="20"/>
-      <c r="G619" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G619" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H619" s="38">
         <v>1</v>
@@ -17983,10 +17985,10 @@
       </c>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A621" s="39">
-        <v>45139</v>
-      </c>
-      <c r="B621" s="20"/>
+      <c r="A621" s="39"/>
+      <c r="B621" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C621" s="13"/>
       <c r="D621" s="38"/>
       <c r="E621" s="9"/>
@@ -17995,14 +17997,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H621" s="38"/>
+      <c r="H621" s="38">
+        <v>1</v>
+      </c>
       <c r="I621" s="9"/>
       <c r="J621" s="11"/>
-      <c r="K621" s="20"/>
+      <c r="K621" s="47">
+        <v>45121</v>
+      </c>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -18020,7 +18026,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -18038,7 +18044,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -18056,21 +18062,39 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B625" s="20"/>
+      <c r="C625" s="13"/>
+      <c r="D625" s="38"/>
+      <c r="E625" s="9"/>
+      <c r="F625" s="20"/>
+      <c r="G625" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H625" s="38"/>
+      <c r="I625" s="9"/>
+      <c r="J625" s="11"/>
+      <c r="K625" s="20"/>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A626" s="39">
         <v>45261</v>
       </c>
-      <c r="B625" s="15"/>
-      <c r="C625" s="40"/>
-      <c r="D625" s="41"/>
-      <c r="E625" s="51"/>
-      <c r="F625" s="15"/>
-      <c r="G625" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H625" s="41"/>
-      <c r="I625" s="51"/>
-      <c r="J625" s="12"/>
-      <c r="K625" s="15"/>
+      <c r="B626" s="15"/>
+      <c r="C626" s="40"/>
+      <c r="D626" s="41"/>
+      <c r="E626" s="51"/>
+      <c r="F626" s="15"/>
+      <c r="G626" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H626" s="41"/>
+      <c r="I626" s="51"/>
+      <c r="J626" s="12"/>
+      <c r="K626" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
